--- a/0_data/9_evaluation/distances/a3/a3_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a3/a3_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.45521064301552</v>
+        <v>75.89901618929017</v>
       </c>
       <c r="C2" t="n">
-        <v>11.44678492239468</v>
+        <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.425288248337029</v>
+        <v>3.41414694894147</v>
       </c>
       <c r="E2" t="n">
-        <v>18.490022172949</v>
+        <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.029922394678492</v>
+        <v>5.996911581569116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009179600886917961</v>
+        <v>0.008405977584059776</v>
       </c>
       <c r="H2" t="n">
-        <v>2.383946784922395</v>
+        <v>2.386525529265255</v>
       </c>
       <c r="I2" t="n">
-        <v>128.4667405764967</v>
+        <v>5.953922789539228</v>
       </c>
       <c r="J2" t="n">
-        <v>341.7039911308204</v>
+        <v>338.9626400996264</v>
       </c>
       <c r="K2" t="n">
-        <v>5.683514412416852</v>
+        <v>5.637185554171856</v>
       </c>
       <c r="L2" t="n">
-        <v>3.016862527716186</v>
+        <v>3.024445828144458</v>
       </c>
       <c r="M2" t="n">
-        <v>4.795676274944569</v>
+        <v>4.828007471980075</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[82.00776053215077, 27.594235033259423, 121.60421286031043, 47.08647450110865, 12.883592017738358, 22.52660753880266, 0.19401330376940132, 14.121951219512194, 3.2095343680709534, 4.325942350332594, 1.7427937915742793, 0.13968957871396895, 2.8348115299334813, 0.013303769401330377, 0.21175166297117518, 0.08980044345898004, 0.019955654101995565, 0.07095343680709534, 0.0, 0.008869179600886918, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[81.0747198007472, 26.613947696139476, 119.90286425902865, 47.342465753424655, 13.166874221668742, 23.0, 0.21419676214196762, 14.251556662515567, 3.25653798256538, 4.265255292652553, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[30.086474501108647, 25.22949002217295, 32.02439024390244, 27.29379157427938, 30.480044345898005, 28.715077605321508, 26.427937915742795, 32.40022172949002, 24.253880266075388, 30.28159645232816, 25.261640798226164, 29.249445676274945]</t>
+          <t>[62.07845579078456, 1.1805728518057286, 59.19053549190536, 1.0099626400996264, 65.67123287671232, 13.188044831880449, 1.5080946450809465, 53.510585305105856, 1.4346201743462017, 57.404732254047325, 0.8206724782067247, 21.96513075965131]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[9.386917960088692, 79.18070953436808, 146.6230598669623, 24.65742793791574, 40.492239467849224, 3.1840354767184036, 9.56541019955654, 2.3736141906873613, 8.534368070953438, 1.123059866962306, 2.5310421286031044, 0.6286031042128604, 3.443458980044346, 0.5133037694013304, 1.6906873614190687, 0.4268292682926829, 4.650776053215077, 0.17738359201773837, 0.5443458980044346, 0.10532150776053215, 0.30155210643015523, 0.04656319290465632, 0.11197339246119734, 0.028824833702882482, 0.17849223946784923, 0.018847006651884702, 0.045454545454545456, 0.009977827050997782, 0.08425720620842572, 0.013303769401330377, 0.026607538802660754, 0.005543237250554324]</t>
+          <t>[11.716064757160648, 71.27397260273973, 149.0049813200498, 24.813200498132005, 40.68866749688667, 3.207970112079701, 9.638854296388542, 2.261519302615193, 8.61892901618929, 1.1145703611457036, 2.459526774595268, 0.6363636363636364, 3.4408468244084682, 0.5255292652552926, 1.7073474470734744, 0.4246575342465753, 4.729763387297634, 0.18929016189290163, 0.5193026151930261, 0.10834371108343711, 0.298879202988792, 0.048567870485678705, 0.10834371108343711, 0.0273972602739726, 0.1930261519302615, 0.017434620174346202, 0.047322540473225407, 0.009962640099626401, 0.08343711083437111, 0.0136986301369863, 0.028642590286425903, 0.0062266500622665]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[7.380266075388026, 121.7439024390244, 50.58869179600887, 77.24944567627495, 13.771618625277162, 18.106430155210642, 0.005543237250554324, 21.464523281596453, 0.0033259423503325942, 4.876940133037694, 2.5620842572062084, 4.835920177383592, 1.7649667405764966, 1.9711751662971175, 0.0033259423503325942, 4.23059866962306, 0.0011086474501108647, 1.2815964523281596, 0.6396895787139689, 1.5199556541019956, 0.6441241685144125, 0.746119733924612, 0.0011086474501108647, 1.6552106430155211, 0.0, 0.5720620842572062, 0.28492239467849223, 0.6208425720620843, 0.2572062084257206, 0.33148558758314856, 0.0, 2.58980044345898, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[4.2465753424657535, 113.51432129514322, 59.48692403486924, 77.27272727272727, 13.86052303860523, 17.982565379825655, 0.0012453300124533001, 21.210460772104607, 0.0049813200498132005, 4.956413449564135, 2.5180572851805727, 4.818181818181818, 1.7970112079701122, 1.891656288916563, 0.0012453300124533001, 4.292652552926525, 0.0, 1.2951432129514322, 0.6537982565379825, 1.4831880448318804, 0.6425902864259029, 0.7571606475716065, 0.0012453300124533001, 1.6338729763387299, 0.0, 0.5591531755915318, 0.2901618929016189, 0.6264009962640099, 0.24906600249066002, 0.32254047322540474, 0.0, 2.592777085927771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[7.121951219512195, 0.9190687361419069, 5.366962305986696, 2.1263858093126387, 0.7472283813747228, 1.492239467849224, 0.017738359201773836, 1.8891352549889135, 0.6940133037694013, 2.7982261640798227, 5.096452328159645, 1.7028824833702882], [1.106430155210643, 6.148558758314856, 1.1851441241685143, 4.590909090909091, 1.8082039911308203, 0.5509977827050998, 1.211751662971175, 0.013303769401330377, 1.2605321507760532, 0.6940133037694013, 1.8747228381374723, 4.700665188470066], [6.208425720620842, 1.4090909090909092, 7.939024390243903, 1.065410199556541, 5.590909090909091, 2.1674057649667406, 0.7594235033259423, 1.8725055432372506, 0.018847006651884702, 1.7206208425720622, 0.5964523281596452, 2.5920177383592016], [2.3015521064301554, 5.11529933481153, 1.270509977827051, 6.758314855875832, 1.1685144124168514, 4.7926829268292686, 1.8436807095343681, 0.6352549889135255, 1.3004434589800444, 0.018847006651884702, 1.3303769401330376, 0.6807095343680709], [0.8037694013303769, 1.893569844789357, 6.595343680709535, 1.3713968957871396, 7.47450110864745, 1.1696230598669624, 4.519955654101995, 2.426829268292683, 0.6341463414634146, 1.7339246119733924, 0.015521064301552107, 1.762749445676275], [1.5110864745011086, 0.6895787139689579, 2.3968957871396896, 5.421286031042128, 1.4246119733924612, 7.210643015521065, 0.7815964523281597, 5.1618625277161865, 1.8492239467849223, 0.6197339246119734, 1.541019955654102, 0.017738359201773836], [0.019955654101995565, 1.3680709534368072, 0.9534368070953437, 2.057649667405765, 5.378048780487805, 0.9490022172949002, 6.790465631929046, 1.1906873614190687, 3.7095343680709534, 1.8337028824833703, 0.39800443458980045, 1.7084257206208426], [1.7361419068736141, 0.01662971175166297, 1.5099778270509978, 0.7405764966740577, 2.7937915742793793, 5.998891352549889, 1.5022172949002217, 8.544345898004435, 0.9878048780487805, 5.725055432372505, 1.9401330376940134, 0.8070953436807096], [0.5443458980044346, 1.1319290465631928, 0.012195121951219513, 1.310421286031042, 0.6263858093126385, 2.169623059866962, 4.593126385809312, 1.1984478935698448, 5.91019955654102, 0.8403547671840355, 4.073170731707317, 1.770509977827051], [2.6574279379157426, 0.5343680709534369, 1.7771618625277161, 0.013303769401330377, 1.8237250554323725, 0.7405764966740577, 2.1186252771618626, 6.383592017738359, 1.1208425720620843, 7.072062084257206, 0.9212860310421286, 5.042128603104213], [4.5798226164079825, 1.646341463414634, 0.5809312638580931, 1.23059866962306, 0.012195121951219513, 1.375831485587583, 0.6363636363636364, 2.074279379157428, 4.676274944567628, 1.1629711751662972, 6.361419068736142, 0.8514412416851441], [1.417960088691796, 4.2849223946784925, 2.350332594235033, 0.5376940133037694, 1.541019955654102, 0.017738359201773836, 1.5886917960088691, 0.9135254988913526, 2.0144124168514415, 5.955654101995566, 1.033259423503326, 7.5144124168514415]]</t>
+          <t>[[16.16936488169365, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.242839352428393, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.2764632627646326, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 14.14694894146949, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19551681195516812, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.816936488169365, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 16.001245330012452, 4.442092154420922, 0.3586550435865504, 11.642590286425904, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3150684931506849], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.0311332503113326, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.3001245330012453, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.72851805728518, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.38729763387297633, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.49439601494396, 0.0448318804483188, 5.4707347447073476], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.1382316313823163, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.07721046077210461, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.774595267745953, 0.026151930261519303, 3.8729763387297633]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.20842572062084258, 2.8813747228381374, 1.3736141906873613, 1.9778270509977827, 0.18403547671840353, 0.18736141906873613, 0.0, 0.34811529933481156, 0.0, 0.022172949002217297, 0.025498891352549888, 0.037694013303769404, 0.014412416851441241, 0.012195121951219513, 0.0, 0.02771618625277162, 0.0, 0.0066518847006651885, 0.0022172949002217295, 0.012195121951219513, 0.007760532150776054, 0.0033259423503325942, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.007760532150776054, 0.0022172949002217295, 0.0, 0.0, 0.022172949002217297], [3.5787139689578713, 65.6729490022173, 15.763858093126386, 16.919068736141906, 3.727272727272727, 5.893569844789357, 0.0, 3.311529933481153, 0.0, 1.6175166297117516, 0.7150776053215078, 0.876940133037694, 0.4501108647450111, 0.6662971175166297, 0.0, 0.7494456762749445, 0.0, 0.31263858093126384, 0.15964523281596452, 0.19401330376940132, 0.06651884700665188, 0.15853658536585366, 0.0, 0.2749445676274945, 0.0, 0.0942350332594235, 0.04878048780487805, 0.07206208425720621, 0.0598669623059867, 0.06762749445676275, 0.0, 0.2827050997782705], [0.21175166297117518, 15.12860310421286, 14.262749445676276, 9.477827050997783, 2.2738359201773837, 2.4490022172949004, 0.0, 2.6330376940133036, 0.0, 0.6729490022172949, 0.5066518847006651, 0.5532150776053215, 0.20842572062084258, 0.28824833702882485, 0.0, 0.5133037694013304, 0.0, 0.1951219512195122, 0.1130820399113082, 0.21729490022172948, 0.12084257206208426, 0.08758314855875832, 0.0, 0.19623059866962306, 0.0, 0.06984478935698447, 0.04878048780487805, 0.06762749445676275, 0.043237250554323724, 0.043237250554323724, 0.0, 0.1951219512195122], [2.4866962305986697, 16.314855875831487, 8.389135254988913, 27.609756097560975, 3.2095343680709534, 3.567627494456763, 0.0022172949002217295, 6.251662971175167, 0.0, 1.2095343680709534, 0.6585365853658537, 1.73059866962306, 0.5354767184035477, 0.5376940133037694, 0.0011086474501108647, 1.394678492239468, 0.0, 0.4079822616407982, 0.15188470066518847, 0.5232815964523282, 0.17405764966740578, 0.229490022172949, 0.0, 0.4700665188470067, 0.0, 0.16518847006651885, 0.07317073170731707, 0.23725055432372505, 0.06984478935698447, 0.08536585365853659, 0.0, 0.746119733924612], [0.21286031042128603, 3.309312638580931, 1.9312638580931263, 3.3492239467849223, 1.5609756097560976, 0.9013303769401331, 0.0, 0.9412416851441242, 0.0, 0.24057649667405764, 0.11419068736141907, 0.24833702882483372, 0.10199556541019955, 0.08980044345898004, 0.0022172949002217295, 0.22062084257206208, 0.0, 0.0565410199556541, 0.03325942350332594, 0.06651884700665188, 0.037694013303769404, 0.04767184035476718, 0.0, 0.07538802660753881, 0.0, 0.028824833702882482, 0.017738359201773836, 0.024390243902439025, 0.012195121951219513, 0.01662971175166297, 0.0, 0.1164079822616408], [0.27605321507760533, 5.113082039911308, 2.3425720620842574, 3.6053215077605323, 0.9412416851441242, 2.4223946784922394, 0.0011086474501108647, 1.147450110864745, 0.0, 0.34700665188470065, 0.12971175166297116, 0.3093126385809313, 0.15631929046563192, 0.1385809312638581, 0.0, 0.30155210643015523, 0.0, 0.11197339246119734, 0.041019955654102, 0.10421286031042129, 0.06208425720620843, 0.06873614190687362, 0.0, 0.1286031042128603, 0.0, 0.06097560975609756, 0.025498891352549888, 0.04767184035476718, 0.008869179600886918, 0.03436807095343681, 0.0, 0.15299334811529933], [0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0033259423503325942, 3.87139689578714, 2.0044345898004434, 5.371396895787139, 0.7649667405764967, 0.9955654101995566, 0.0, 4.38470066518847, 0.0, 0.29490022172949004, 0.18181818181818182, 0.6341463414634146, 0.14966740576496673, 0.1197339246119734, 0.0, 0.6596452328159645, 0.0, 0.1164079822616408, 0.08314855875831485, 0.28159645232815966, 0.1286031042128603, 0.0942350332594235, 0.0011086474501108647, 0.35476718403547675, 0.0, 0.11086474501108648, 0.04656319290465632, 0.11086474501108648, 0.03991130820399113, 0.041019955654102, 0.0, 0.5942350332594235], [0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04656319290465632, 2.0232815964523283, 0.6452328159645233, 1.165188470066519, 0.14745011086474502, 0.2261640798226164, 0.0, 0.26053215077605324, 0.0, 0.09201773835920177, 0.02328159645232816, 0.03991130820399113, 0.01662971175166297, 0.013303769401330377, 0.0, 0.019955654101995565, 0.0, 0.0066518847006651885, 0.005543237250554324, 0.0011086474501108647, 0.013303769401330377, 0.0066518847006651885, 0.0, 0.007760532150776054, 0.0, 0.007760532150776054, 0.0066518847006651885, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0, 0.07538802660753881], [0.005543237250554324, 0.9024390243902439, 0.5576496674057649, 0.5842572062084257, 0.10643015521064302, 0.10643015521064302, 0.0, 0.12638580931263857, 0.0, 0.011086474501108648, 0.01662971175166297, 0.031042128603104215, 0.011086474501108648, 0.014412416851441241, 0.0, 0.019955654101995565, 0.0, 0.004434589800443459, 0.0022172949002217295, 0.007760532150776054, 0.0, 0.0011086474501108647, 0.0, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.02106430155210643], [0.14412416851441243, 1.311529933481153, 0.655210643015521, 1.6274944567627494, 0.13082039911308205, 0.19068736141906872, 0.0, 0.3303769401330377, 0.0, 0.06097560975609756, 0.013303769401330377, 0.10753880266075388, 0.019955654101995565, 0.015521064301552107, 0.0, 0.041019955654102, 0.0, 0.0022172949002217295, 0.0066518847006651885, 0.025498891352549888, 0.0066518847006651885, 0.008869179600886918, 0.0, 0.019955654101995565, 0.0, 0.005543237250554324, 0.0, 0.012195121951219513, 0.005543237250554324, 0.004434589800443459, 0.0, 0.06097560975609756], [0.008869179600886918, 0.5964523281596452, 0.2793791574279379, 0.4334811529933481, 0.057649667405764965, 0.1352549889135255, 0.0, 0.08869179600886919, 0.0011086474501108647, 0.03991130820399113, 0.014412416851441241, 0.015521064301552107, 0.018847006651884702, 0.004434589800443459, 0.0, 0.004434589800443459, 0.0, 0.0066518847006651885, 0.004434589800443459, 0.005543237250554324, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.015521064301552107], [0.03547671840354767, 0.7405764966740577, 0.2982261640798226, 0.4634146341463415, 0.06762749445676275, 0.1541019955654102, 0.0, 0.08314855875831485, 0.0, 0.011086474501108648, 0.017738359201773836, 0.015521064301552107, 0.0033259423503325942, 0.009977827050997782, 0.0, 0.0022172949002217295, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.022172949002217297], [0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.9401330376940134, 0.5753880266075388, 1.4390243902439024, 0.14079822616407983, 0.20620842572062084, 0.0, 0.5543237250554324, 0.0, 0.02771618625277162, 0.024390243902439025, 0.045454545454545456, 0.013303769401330377, 0.007760532150776054, 0.0, 0.07095343680709534, 0.0, 0.005543237250554324, 0.0011086474501108647, 0.011086474501108648, 0.0022172949002217295, 0.007760532150776054, 0.0, 0.018847006651884702, 0.0, 0.005543237250554324, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.007760532150776054, 0.0, 0.052106430155210645], [0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 0.458980044345898, 0.15188470066518847, 0.34811529933481156, 0.0565410199556541, 0.07317073170731707, 0.0011086474501108647, 0.06430155210643015, 0.0011086474501108647, 0.024390243902439025, 0.005543237250554324, 0.0066518847006651885, 0.0011086474501108647, 0.004434589800443459, 0.0, 0.008869179600886918, 0.0, 0.013303769401330377, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0066518847006651885], [0.0011086474501108647, 0.19623059866962306, 0.12195121951219512, 0.19401330376940132, 0.01662971175166297, 0.025498891352549888, 0.0, 0.024390243902439025, 0.0, 0.0066518847006651885, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0033259423503325942], [0.058758314855875834, 0.33370288248337027, 0.2583148558758315, 0.4700665188470067, 0.05321507760532151, 0.06873614190687362, 0.0, 0.14301552106430154, 0.0, 0.014412416851441241, 0.013303769401330377, 0.02106430155210643, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.008869179600886918, 0.0, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.008869179600886918], [0.0011086474501108647, 0.22062084257206208, 0.09312638580931264, 0.16851441241685144, 0.02771618625277162, 0.03547671840354767, 0.0, 0.024390243902439025, 0.0, 0.008869179600886918, 0.0033259423503325942, 0.005543237250554324, 0.0066518847006651885, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.004434589800443459, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647], [0.012195121951219513, 0.23392461197339245, 0.11086474501108648, 0.17405764966740578, 0.02771618625277162, 0.050997782705099776, 0.0, 0.04878048780487805, 0.0, 0.007760532150776054, 0.0011086474501108647, 0.004434589800443459, 0.0033259423503325942, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295], [0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.3492239467849224, 0.20288248337028825, 0.5842572062084257, 0.06208425720620843, 0.07538802660753881, 0.0, 0.17184035476718404, 0.0, 0.025498891352549888, 0.019955654101995565, 0.011086474501108648, 0.008869179600886918, 0.0066518847006651885, 0.0, 0.022172949002217297, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.011086474501108648, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.011086474501108648], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.17405764966740578, 0.07317073170731707, 0.12527716186252771, 0.025498891352549888, 0.05321507760532151, 0.0, 0.03436807095343681, 0.0, 0.009977827050997782, 0.004434589800443459, 0.0066518847006651885, 0.004434589800443459, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942], [0.0022172949002217295, 0.06873614190687362, 0.03436807095343681, 0.06208425720620843, 0.01662971175166297, 0.013303769401330377, 0.0, 0.017738359201773836, 0.0, 0.017738359201773836, 0.0033259423503325942, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.037694013303769404, 0.12195121951219512, 0.07095343680709534, 0.2073170731707317, 0.02993348115299335, 0.036585365853658534, 0.0, 0.03215077605321508, 0.0, 0.02328159645232816, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0033259423503325942], [0.0, 0.05321507760532151, 0.025498891352549888, 0.07095343680709534, 0.018847006651884702, 0.014412416851441241, 0.0, 0.026607538802660754, 0.0, 0.0066518847006651885, 0.008869179600886918, 0.0033259423503325942, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.004434589800443459, 0.057649667405764965, 0.043237250554323724, 0.052106430155210645, 0.007760532150776054, 0.03325942350332594, 0.0, 0.04212860310421286, 0.0, 0.01662971175166297, 0.0011086474501108647, 0.008869179600886918, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.038802660753880266, 0.3082039911308204, 0.17405764966740578, 0.4844789356984479, 0.07095343680709534, 0.12749445676274945, 0.0, 0.3181818181818182, 0.0, 0.04656319290465632, 0.04434589800443459, 0.11197339246119734, 0.028824833702882482, 0.028824833702882482, 0.0, 0.14079822616407983, 0.0011086474501108647, 0.024390243902439025, 0.02328159645232816, 0.04656319290465632, 0.009977827050997782, 0.015521064301552107, 0.0, 0.06097560975609756, 0.0, 0.008869179600886918, 0.008869179600886918, 0.025498891352549888, 0.005543237250554324, 0.009977827050997782, 0.0, 0.18514412416851442]]</t>
+          <t>[[0.0460772104607721, 0.9315068493150684, 0.6861768368617683, 1.7957658779576589, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3300124533001245, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.028642590286425903], [0.6587795765877957, 60.255292652552924, 16.89165628891656, 16.62640099626401, 3.468244084682441, 5.734744707347447, 0.0, 3.1930261519302614, 0.0, 1.5828144458281446, 0.6687422166874222, 0.8443337484433375, 0.46201743462017436, 0.6239103362391034, 0.0, 0.75093399750934, 0.0, 0.30884184308841844, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.0958904109589041, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.25529265255292655], [0.21544209215442092, 16.188044831880447, 20.933997509339974, 9.975093399750934, 2.6077210460772107, 2.506849315068493, 0.0, 2.668742216687422, 0.0, 0.7297633872976339, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5566625155666252, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.21793275217932753], [2.506849315068493, 15.688667496886675, 8.938978829389788, 27.669987546699875, 3.2391033623910337, 3.5367372353673723, 0.0, 6.290161892901619, 0.0, 1.2627646326276463, 0.6450809464508095, 1.7347447073474471, 0.5442092154420921, 0.5242839352428393, 0.0, 1.389788293897883, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.0759651307596513, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.7285180572851806], [0.1917808219178082, 2.987546699875467, 2.24906600249066, 3.332503113325031, 1.6425902864259028, 0.9240348692403487, 0.0, 0.925280199252802, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.09090909090909091, 0.0, 0.23536737235367372, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.019925280199252802, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.11581569115815692], [0.21793275217932753, 4.877957658779577, 2.503113325031133, 3.569115815691158, 0.9327521793275217, 2.427148194271482, 0.0, 1.174346201743462, 0.0, 0.33374844333748444, 0.1295143212951432, 0.31008717310087175, 0.1519302615193026, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1307596513075965, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.1581569115815691], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 3.6587795765877957, 2.2428393524283936, 5.268991282689913, 0.775840597758406, 1.029887920298879, 0.0, 4.2278953922789535, 0.0, 0.3001245330012453, 0.16064757160647572, 0.613947696139477, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6724782067247821, 0.0, 0.11207970112079702, 0.08841843088418432, 0.2627646326276463, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33499377334993774, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.6039850560398505], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.937733499377335, 0.7696139476961394, 1.2216687422166874, 0.14072229140722292, 0.2266500622665006, 0.0, 0.261519302615193, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.07721046077210461], [0.0037359900373599006, 0.772104607721046, 0.6836861768368617, 0.5877957658779577, 0.09713574097135741, 0.09090909090909091, 0.0, 0.12204234122042341, 0.0, 0.012453300124533, 0.009962640099626401, 0.031133250311332503, 0.012453300124533, 0.014943960149439602, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0186799501867995], [0.1519302615193026, 1.2179327521793275, 0.6998754669987547, 1.6774595267745953, 0.12702366127023662, 0.18306351183063513, 0.0, 0.298879202988792, 0.0, 0.06102117061021171, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0062266500622665, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.06351183063511831], [0.007471980074719801, 0.5877957658779577, 0.3150684931506849, 0.42839352428393523, 0.06102117061021171, 0.1432129514321295, 0.0, 0.09713574097135741, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0186799501867995, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0161892901618929], [0.034869240348692404, 0.6438356164383562, 0.3437110834371108, 0.45703611457036114, 0.049813200498132, 0.1519302615193026, 0.0, 0.0821917808219178, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0224159402241594], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9165628891656289, 0.6376089663760897, 1.4595267745952678, 0.14694894146948942, 0.20049813200498132, 0.0, 0.5579078455790785, 0.0, 0.029887920298879204, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.062266500622665005, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.012453300124533, 0.0024906600249066002, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.05603985056039851], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18679950186799502, 0.33872976338729766, 0.058530510585305104, 0.0784557907845579, 0.0, 0.0684931506849315, 0.0, 0.0273972602739726, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665], [0.0012453300124533001, 0.1930261519302615, 0.136986301369863, 0.20049813200498132, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0049813200498132005], [0.05105853051058531, 0.32129514321295144, 0.28268991282689915, 0.46077210460772106, 0.05603985056039851, 0.07098381070983811, 0.0, 0.1095890410958904, 0.0, 0.0136986301369863, 0.012453300124533, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.009962640099626401, 0.0, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0012453300124533001, 0.22042341220423411, 0.09339975093399751, 0.16811955168119552, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0136986301369863, 0.22789539227895392, 0.1295143212951432, 0.16064757160647572, 0.031133250311332503, 0.047322540473225407, 0.0, 0.0547945205479452, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33623910336239105, 0.20672478206724781, 0.5529265255292652, 0.062266500622665005, 0.08094645080946451, 0.0, 0.18181818181818182, 0.0, 0.026151930261519303, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.1307596513075965, 0.021170610211706103, 0.05603985056039851, 0.0, 0.033623910336239106, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.0647571606475716, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.04234122042341221, 0.11955168119551682, 0.0647571606475716, 0.21419676214196762, 0.0323785803237858, 0.039850560398505604, 0.0, 0.029887920298879204, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006], [0.0, 0.053549190535491904, 0.0136986301369863, 0.0722291407222914, 0.0186799501867995, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0037359900373599006, 0.053549190535491904, 0.04234122042341221, 0.052303860523038606, 0.007471980074719801, 0.029887920298879204, 0.0, 0.039850560398505604, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.043586550435865505, 0.32004981320049813, 0.16189290161892902, 0.4931506849315068, 0.06973848069738481, 0.12702366127023662, 0.0012453300124533001, 0.3163138231631382, 0.0049813200498132005, 0.043586550435865505, 0.048567870485678705, 0.11207970112079702, 0.0273972602739726, 0.031133250311332503, 0.0012453300124533001, 0.1432129514321295, 0.0, 0.023661270236612703, 0.017434620174346202, 0.0448318804483188, 0.009962640099626401, 0.017434620174346202, 0.0012453300124533001, 0.05603985056039851, 0.0, 0.009962640099626401, 0.007471980074719801, 0.0224159402241594, 0.0037359900373599006, 0.0112079701120797, 0.0, 0.1780821917808219]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.004853709558094</v>
+        <v>3.589628813979775</v>
       </c>
       <c r="C3" t="n">
-        <v>2.997956746217249</v>
+        <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6008621623957755</v>
+        <v>0.5969575108943947</v>
       </c>
       <c r="E3" t="n">
-        <v>3.621414841474782</v>
+        <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.403551914336999</v>
+        <v>1.391660332695042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02100028784134691</v>
+        <v>0.02079849511115319</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4362427128161899</v>
+        <v>0.4285598203108515</v>
       </c>
       <c r="I3" t="n">
-        <v>108.0332466186393</v>
+        <v>15.25553592201897</v>
       </c>
       <c r="J3" t="n">
-        <v>90.47439621174703</v>
+        <v>81.61224787213895</v>
       </c>
       <c r="K3" t="n">
-        <v>1.77917422713511</v>
+        <v>1.550233357017902</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8973089979845965</v>
+        <v>0.890177776466854</v>
       </c>
       <c r="M3" t="n">
-        <v>1.677719368968303</v>
+        <v>1.646334322763848</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[56.31796161159033, 26.55658498815325, 38.99032946211724, 24.876128928218325, 9.221394743856301, 12.71506175230078, 0.8217171948923585, 10.027378560955782, 4.589030350897402, 5.386829317759368, 2.937699025600965, 0.7267452524464653, 3.8730387237426322, 0.16257474749289128, 0.9936357528199901, 0.6772565664881015, 0.20963699547979395, 0.4410466537966432, 0.0, 0.10491812119131683, 0.04703592779511438, 0.04703592779511405, 0.06655579166210117, 0.09983368749315122, 0.07437859475706973, 0.0, 0.0, 0.033277895831050446, 0.09983368749315122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.189497926979804, 25.799599458835893, 38.07632145843377, 24.63620289428403, 9.276413860697431, 12.652457565265603, 0.8921674929666127, 10.1943251834253, 4.666612977517225, 5.336556020994414, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[32.601627817508614, 31.891436817929385, 33.18204613347108, 34.39256135142202, 34.136044841574424, 33.66641781372958, 33.628378892283585, 33.72683601822237, 32.15505776596352, 33.13826564898895, 31.127772101090017, 33.094350016561336]</t>
+          <t>[26.92002031027889, 4.227764621434892, 24.424480096457316, 3.7476302680828053, 22.754228747142264, 16.499617159617078, 5.322793087988967, 25.796759525637036, 4.525466552825089, 27.491229485998787, 3.265765828546395, 20.06940087256966]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[36.47645970587036, 81.52580117723262, 86.141814700302, 32.15654518542917, 39.370876346576566, 5.1152407063919165, 10.13794221140797, 4.329690722113477, 10.62307421388268, 2.5413084681597575, 4.389898556373946, 1.6476086413147295, 5.2720465621442685, 1.3717696804795398, 2.9245314923811017, 1.0730888398506955, 7.159335961908734, 0.8314885439710982, 1.7152395590994207, 0.554156294004558, 1.0972540949283451, 0.3363498236628825, 0.5859503313987622, 0.3074293572050929, 0.7281653504911864, 0.1439065387408449, 0.27685348698434553, 0.09938948645776392, 0.33561085771160987, 0.1406366375512162, 0.19231758157442344, 0.07424627782817401]</t>
+          <t>[21.686009709983814, 72.7775892149464, 85.96102377856744, 32.42629308572125, 39.282705704479994, 5.070151585503006, 10.195673865006906, 4.113744078606814, 10.815525041185259, 2.53087030812154, 4.409238944529501, 1.7026161767564227, 5.296905770346, 1.3777391600385327, 2.971057283593464, 1.077444384652782, 7.303964246720032, 0.8710280033131858, 1.6134748627057829, 0.5729194827097635, 1.1160936319909365, 0.3477482324748241, 0.5772504254812084, 0.3183809842792927, 0.7659316163405778, 0.14007610152566805, 0.2871289222805381, 0.09931458050997263, 0.3410658584034613, 0.1448549541578633, 0.20068754927160506, 0.07866307196689296]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[14.603274271251596, 96.8262887917272, 57.51562406697944, 60.43468625179977, 16.576402210382177, 16.984856392672512, 0.09973514712367786, 26.511436781229076, 0.07437859475707, 5.435301825708383, 3.95036040366486, 6.338538391666564, 2.8526591144551507, 3.057332894582597, 0.07437859475707005, 6.163697766079452, 0.033277895831050404, 2.2465727781108766, 1.366327361199493, 2.6735007399398754, 1.6198477447863748, 1.7207683463645043, 0.033277895831050494, 3.075504124662841, 0.0, 1.3495568643336857, 0.9439825436722376, 1.5962567630894253, 1.0801207945737195, 1.0131539574952564, 0.0, 5.427840093027502, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.311534491256449, 91.75435955455536, 68.25529518597438, 60.743681648245634, 16.888852778379242, 17.05619442499294, 0.03526725344584421, 25.89814881880533, 0.08629696706884245, 5.513424629630707, 3.9313042856673794, 6.349067115112054, 2.9112896636161754, 2.983886592922362, 0.03526725344584419, 6.286658534495317, 0.0, 2.269800397885193, 1.395489940306396, 2.61629224363721, 1.629592241781981, 1.7076657895100733, 0.03526725344584421, 3.075302059710585, 0.0, 1.318486350606827, 0.9608735900119527, 1.6408242540644988, 1.071646816123633, 1.022451585467955, 0.0, 5.49785853329974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[11.811649392917728, 3.7725070354214383, 9.457662426693714, 5.839462814507502, 2.7063135657858424, 3.888046049126405, 0.2394473178354557, 4.153233656627079, 2.445763718828406, 6.561940687757556, 9.034953598503261, 4.766658559189279], [4.13059842562421, 11.48246967756563, 4.379209211291096, 9.29797712154157, 5.169394335346067, 2.2224300292761505, 2.9666579239378845, 0.2302999941924394, 3.258244692335176, 2.6619491033165525, 5.3391458663083755, 8.382431977334559], [10.255970948365036, 4.779627574408951, 11.889814080581848, 3.9818241146024858, 9.502948862816067, 5.731203900402855, 2.624884096316042, 4.062747606300056, 0.21752386235774515, 3.6498027848686383, 1.9724006576143813, 6.20705757810865], [5.962184772243455, 9.941180052215923, 4.45847999480661, 13.841889595773301, 4.419065954787687, 8.71692238220719, 5.605366349037617, 2.190738136435, 3.2768724987690625, 0.2799263462022353, 3.120554074088911, 2.4881190737956578], [2.804468082183547, 5.259115484749216, 10.199305465433769, 5.040917062757943, 13.845157066526333, 4.091937840472223, 8.035615068705141, 5.934291972115858, 2.3152986553109898, 3.755873730559164, 0.2659182832564216, 3.868290039355247], [3.892312785423765, 2.5599425835248364, 5.931978737199383, 9.839618056116176, 4.413290451575483, 13.72375454577399, 2.9266673760910384, 9.089257326552387, 5.441636970916044, 2.455494932101562, 3.6861312351803166, 0.22512914808600096], [0.24836672296338191, 3.291425473048559, 2.934624772680152, 6.139996661173272, 9.379181867947374, 3.2866818031168754, 15.288482324970138, 3.994897212744583, 7.826832719957829, 5.34311163487747, 1.4321755612067257, 3.9213888389575615], [3.670944490474667, 0.21770460041492767, 3.3814103447652957, 2.409169222306582, 6.179111980704342, 10.169680105558486, 4.540223722157287, 13.415322268913382, 3.6841582499545344, 9.946186343500292, 5.421559898586726, 2.4671757756557704], [2.068592654423098, 2.8419763827189586, 0.17889118215778574, 3.1876080112843983, 2.209908150346818, 5.9013553698787495, 9.274196935942344, 4.164504989050399, 12.827342529462527, 3.4120256688081376, 8.050503746182809, 5.143990483965216], [6.486652271090916, 1.9789453253351126, 3.7310065241614088, 0.18788221875223884, 3.9945878413130975, 2.593975388299153, 5.754041007029766, 10.505477251694842, 4.1370410711570615, 12.169730722521113, 3.645823675820126, 8.99854626797559], [8.792366723875682, 4.863569141785515, 2.282584216853146, 2.8611697088414734, 0.1446221993772101, 3.3702745725594965, 2.3928772892538883, 5.2502796126148175, 8.984926542324605, 4.464325609261824, 11.568468565395797, 3.2316500776498707], [4.426466090143165, 8.14746127426867, 5.95337528406982, 2.051503802861978, 3.6055485483367486, 0.24403342582280704, 3.706290669668263, 2.5965299607231502, 5.711932955799859, 9.976037040718252, 3.648801130039773, 12.417055747448122]]</t>
+          <t>[[15.497678546121529, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374591568516089, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5327983978986317, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.42256329880656, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0947081248483568, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.70901819465485, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.402337984671936, 6.765605758296028, 1.5957241072502508, 9.436714778906712, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.623603861951986], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.240132601165399, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5537966146617601, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.725416093404476, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8058126832276957, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.685130491426762, 0.4151340798331694, 6.933060317277985], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.8013502684208056, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5319352475974184, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.2594852919602175, 0.4091889883963065, 7.109624051601174]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[4.825424164176308, 7.2772393019170325, 4.036294872108579, 6.397542881726077, 0.9426163704292714, 0.8691152573586437, 0.0, 1.8312063911575804, 0.0, 0.21974723692784545, 0.32008439418393725, 0.3136198843680587, 0.15903198921302067, 0.15209495538288967, 0.0, 0.27112947493223544, 0.0, 0.10508200098512223, 0.04703592779511432, 0.17889118215778582, 0.128722515095067, 0.0743785947570697, 0.0, 0.12872251509506702, 0.0, 0.0, 0.0, 0.11980063018272492, 0.047035927795114736, 0.0, 0.0, 0.21464285042180978], [8.624458034850951, 74.11825003913917, 20.35621528815981, 17.490164864345108, 5.587929370190771, 7.791189997678975, 0.0, 4.661425903184333, 0.0, 3.023383230923858, 1.8603622851785815, 1.823516119020401, 1.2901017461522892, 1.842030666417577, 0.0, 1.757270208043659, 0.0, 1.0475586231485157, 0.6864309559517292, 0.8094834737533408, 0.42118098818807886, 0.8034910443916725, 0.0, 0.9987873729875923, 0.0, 0.514738456581576, 0.3457913872867804, 0.4851634288428598, 0.4525943740758382, 0.40898273406182906, 0.0, 1.0628321573185096], [2.377498786403206, 20.18838885077624, 28.983455950358216, 15.233768088641645, 4.668781364773672, 4.8162642622113285, 0.0, 5.617869757942478, 0.0, 1.8043185309239653, 1.5791954253525116, 1.5776099960508647, 0.9327830497361249, 1.0450259294953654, 0.0, 1.7433244087658, 0.0, 0.7322614309860355, 0.619764664521291, 0.9078435008991276, 0.8113852814752731, 0.53282592980043, 0.0, 0.8773240810992179, 0.0, 0.48319862083155674, 0.5220776107409855, 0.46001388540469423, 0.3216396243080695, 0.40137478163282486, 0.0, 0.8819818294238874], [7.740908432767207, 16.983968602847497, 14.282251926597212, 42.40655089630092, 5.636572648731567, 5.002590761482657, 0.06655579166210104, 10.282154287456791, 0.0, 2.603808826321446, 1.8318533102335666, 3.7963010759013134, 1.5540394203391177, 1.5061656002787505, 0.03327789583105051, 3.436709103817211, 0.0, 1.3141994974035691, 0.61772757506389, 1.5123332901746243, 0.7487409602134475, 0.9260312555546298, 0.0, 1.5462893844039136, 0.0, 0.7159777074470058, 0.4253220140552787, 1.0451176645660407, 0.6072362769853629, 0.5141315943475082, 0.0, 2.2178627321693787], [1.2166303381060068, 4.830003899067416, 4.352502448028129, 5.737706849042272, 5.7472779965556935, 2.3364978443992106, 0.0, 2.5269908419747384, 0.0, 0.9689153765410604, 0.6114560057834186, 0.8608074546579687, 0.5537780018819496, 0.46582326340263286, 0.06655579166210096, 0.9552611072732421, 0.0, 0.3768765434819473, 0.31763088036024834, 0.4050798136290674, 0.27196909377463074, 0.33783927820611964, 0.0, 0.4275356265424778, 0.0, 0.26480665733530123, 0.187515516734953, 0.26525186674079354, 0.1592173682521629, 0.2372013335601442, 0.0, 0.529377706316729], [1.9255150920399806, 7.243658104887182, 4.848382503133569, 5.505036441932924, 2.3917554735711732, 5.57234894436399, 0.033277895831050244, 2.7716871388427737, 0.0, 1.109516843149715, 0.7077522311390504, 1.169978193476517, 0.7452428435324266, 0.6804828919879421, 0.0, 1.1505218265852224, 0.0, 0.675588506990491, 0.29684643622101514, 0.5073779288387978, 0.4002816103989316, 0.4019607696186088, 0.0, 0.6040165266157468, 0.0, 0.3389797223680737, 0.20092227898840231, 0.3600783834117038, 0.12426746136764563, 0.24902156604450545, 0.0, 0.6377681758095843], [0.0, 0.033277895831050244, 0.0, 0.0, 0.06655579166210104, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.0, 0.033277895831050286, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05757499854810981, 4.645657204814705, 4.073599804555309, 9.581404178456586, 2.0044775126381693, 2.3708274729459595, 0.0, 13.250005600516937, 0.0, 1.0776691923075161, 0.9335943809014648, 2.5198256663475638, 0.7554641311544147, 0.6185140050449143, 0.0, 2.8542789068574117, 0.0, 0.5963461935425535, 0.4991832110077632, 1.1914674945570531, 0.6848713928434842, 0.5776606448347092, 0.033277895831050494, 1.5990831980856666, 0.0, 0.5600458540568076, 0.3617589847948858, 0.616579439855783, 0.3437164704948244, 0.2854223572119921, 0.0, 2.1406968895994383], [0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4825610101220703, 3.270256858181967, 1.8994906836057137, 2.4815029505373505, 0.6786163169304182, 0.9262508937047778, 0.0, 1.2314139046723682, 0.0, 0.6536292402584392, 0.24128050506103182, 0.3975579458310572, 0.22766177290504186, 0.16925673818964782, 0.0, 0.1931211670768647, 0.0, 0.14875718951414185, 0.08791930772907698, 0.033277895831050265, 0.1993346882098226, 0.08128737374644553, 0.0, 0.08775138911443416, 0.0, 0.09958715374853608, 0.09394110937611946, 0.09983368749315352, 0.0, 0.047035927795114285, 0.0, 0.5439381875492627], [0.11992368144876527, 1.9356082808806458, 1.6576444622711275, 1.9176784202898782, 0.6191535466274137, 0.6137582827144922, 0.0, 0.7091358359695737, 0.0, 0.14849255565634684, 0.2954769047587577, 0.4603223834152262, 0.12408930004109218, 0.1658567710202754, 0.0, 0.22494344750283496, 0.0, 0.1051989016787274, 0.047035927795114944, 0.1449278292559514, 0.0, 0.03327789583105035, 0.0, 0.11029231374852598, 0.0, 0.05757499854810978, 0.09983368749315105, 0.07437859475707076, 0.0, 0.10519890167872692, 0.0, 0.19585442541337167], [0.8754244191412034, 2.319650006260225, 1.8674984483315704, 4.037633131600942, 0.6234187917575682, 0.770292205502566, 0.0, 1.3539576839851946, 0.0, 0.4437872953171821, 0.17568476975202124, 0.9420979184576497, 0.2933875814992999, 0.1817099889006465, 0.0, 0.35469961939772204, 0.0, 0.047035927795114466, 0.1050820009851222, 0.23641240765967755, 0.199667374986303, 0.12426746136764565, 0.0, 0.20428013847061569, 0.0, 0.08791930772907713, 0.0, 0.1908838517377874, 0.1371724431971264, 0.0814384375707637, 0.0, 0.412722212489562], [0.11500046545356925, 1.4341065063914107, 1.019541032085816, 1.290210827397916, 0.40369992985463093, 1.0463212355129372, 0.0, 0.6201572080206527, 0.03327789583105035, 0.37753311906620585, 0.17241161037903957, 0.19917430749707216, 0.2593690127926383, 0.0814384375707627, 0.0, 0.08143843757076363, 0.0, 0.1487571895141417, 0.06644489606994097, 0.1199236814487646, 0.033277895831050244, 0.0, 0.0, 0.03327789583105041, 0.0, 0.23294527081735455, 0.0, 0.0, 0.07437859475707079, 0.0, 0.0, 0.148094718221699], [0.3808974479646053, 1.867357269238424, 1.0374245153864294, 1.417460285786314, 0.41703568367869037, 0.835453209333067, 0.0, 0.5123354834025793, 0.0, 0.14082877612594488, 0.187515516734953, 0.21522613565179172, 0.057574998548109754, 0.268258321817881, 0.0, 0.047035927795114986, 0.0, 0.07437859475707082, 0.0, 0.0, 0.033277895831050536, 0.05757499854811011, 0.0, 0.03327789583105042, 0.0, 0.03327789583105049, 0.0, 0.07437859475706995, 0.033277895831050446, 0.13717244319712676, 0.0, 0.19854387055896688], [0.0, 0.06655579166210096, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03327789583105053, 1.8713522341009923, 1.697256692963053, 3.489951737203246, 0.8217650581087952, 0.8756658744879539, 0.0, 2.939681517636869, 0.0, 0.24081139482067282, 0.22939091875595632, 0.32476558770638303, 0.14831034597064952, 0.15238559837814275, 0.0, 0.6080201048836564, 0.0, 0.09973514712367766, 0.033277895831050446, 0.1408287761259452, 0.0665557916621006, 0.1449278292559538, 0.0, 0.24621210387867262, 0.0, 0.08791930772907702, 0.033277895831050404, 0.033277895831050563, 0.03327789583105029, 0.15238559837814275, 0.0, 0.48314265678999774], [0.0, 0.0, 0.033277895831050404, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06655579166210099, 1.3936752372800345, 0.6593955069604571, 1.0874673051174613, 0.3709465449717168, 0.4506348462361255, 0.033277895831050286, 0.3621053704520675, 0.0332778958310505, 0.3078129248617001, 0.08791930772907708, 0.1696484191874814, 0.03327789583105046, 0.08143843757076462, 0.0, 0.14864147017378698, 0.0, 0.2048209286765611, 0.06655579166210053, 0.0, 0.0, 0.0, 0.0, 0.06655579166210099, 0.0, 0.0332778958310502, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08128737374644558], [0.033277895831050584, 0.6938654093177953, 0.635764607540714, 0.7512352516826362, 0.1905487300947311, 0.21167038525579543, 0.0, 0.24797050874769025, 0.0, 0.10508200098512357, 0.08143843757076337, 0.0, 0.0, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.06655579166210047, 0.09983368749315272, 0.07437859475707076, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.033277895831050196, 0.03327789583105053, 0.0, 0.05757499854810983], [0.5408847655600044, 1.0657723807628996, 1.0158459815807168, 1.4622719451917785, 0.33865142141620175, 0.44639273472599544, 0.0, 0.930245060923904, 0.0, 0.17872621042733358, 0.18188576971011922, 0.25488525802145295, 0.033277895831050584, 0.04703592779511445, 0.0, 0.08143843757076302, 0.0, 0.03327789583105051, 0.03327789583105029, 0.15592171611307895, 0.0, 0.07437859475707083, 0.0, 0.06644489606994097, 0.0, 0.0, 0.0, 0.06655579166210114, 0.0, 0.03327789583105021, 0.0, 0.09375775836747652], [0.03327789583105053, 0.9598921620003971, 0.5160155461743284, 0.7328117714422596, 0.25424793524460304, 0.26816437898914197, 0.0, 0.23417405600946364, 0.0, 0.1628768751415266, 0.05757499854810973, 0.09973514712367683, 0.14110778338534213, 0.033277895831050563, 0.0, 0.033277895831050563, 0.0, 0.0, 0.09407185559022847, 0.03327789583105021, 0.09407185559022847, 0.06655579166210053, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105056, 0.0, 0.033277895831050536], [0.24209418385510806, 0.8794537629380611, 0.6255051399900562, 0.8616444784941928, 0.25857166796918485, 0.3323872230854739, 0.0, 0.35527956347414785, 0.0, 0.11015850440141374, 0.03327789583105054, 0.08143843757076304, 0.07437859475707072, 0.1371724431971268, 0.0, 0.0743785947570707, 0.0, 0.03327789583105038, 0.0332778958310502, 0.06655579166210053, 0.06655579166210053, 0.0470359277951149, 0.0, 0.06655579166210102, 0.0, 0.0, 0.0, 0.033277895831050515, 0.0, 0.03327789583105019, 0.0, 0.047035927795114355], [0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.033277895831050355, 1.0784085634259608, 0.8833722083434883, 1.9292061635942184, 0.4002816103989315, 0.5189038572526866, 0.0, 1.1243942665955164, 0.0, 0.20636631773163697, 0.29714233605837803, 0.148492555656348, 0.18814371118045692, 0.0939411093761195, 0.0, 0.3043595671929189, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.03327789583105031, 0.0, 0.1627409871108005, 0.0, 0.0, 0.0, 0.0, 0.0998336874931506, 0.03327789583105037, 0.0, 0.10470704171279467], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0332778958310502, 0.707634130886415, 0.5276928948259557, 0.5870400787013633, 0.25008540780323607, 0.3788266343990291, 0.0, 0.26623470839870694, 0.0, 0.13692132638571997, 0.09407185559022938, 0.19966737498630144, 0.06644489606994097, 0.033277895831050355, 0.0, 0.09983368749315068, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105053, 0.0, 0.05757499854810957, 0.0, 0.0332778958310503, 0.0, 0.03327789583105034, 0.0, 0.033277895831050286, 0.0, 0.057574998548109754], [0.06655579166210092, 0.37632008478207635, 0.319253893569442, 0.46913998969342696, 0.19054873009473153, 0.1406366375512154, 0.0, 0.19333743537297213, 0.0, 0.2615750227366948, 0.07437859475707098, 0.0470359277951141, 0.0, 0.0, 0.0, 0.13717244319712682, 0.0, 0.03327789583105026, 0.0, 0.03327789583105029, 0.0, 0.033277895831050314, 0.0, 0.03327789583105026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3777609427607245, 0.6072231202761097, 0.43599032216870653, 1.0424640918683599, 0.27089364308431757, 0.34247158738677397, 0.0, 0.24483042571394717, 0.0, 0.31677260807512686, 0.033277895831050466, 0.07437859475706984, 0.0, 0.033277895831050355, 0.0, 0.08143843757076452, 0.0, 0.0, 0.0, 0.03327789583105023, 0.06655579166210099, 0.0, 0.0, 0.0940718555902281, 0.0, 0.0, 0.033277895831050196, 0.0, 0.0, 0.047035927795114056, 0.0, 0.0575749985481094], [0.0, 0.3987865133522584, 0.22683967178384334, 0.5506083916324569, 0.18442576092753676, 0.1848251963178666, 0.0, 0.33522243181233213, 0.0, 0.14875718951414058, 0.21039780335745412, 0.05757499854810955, 0.09407185559022818, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05757499854810994], [0.08143843757076459, 0.37523417270074894, 0.296531589587828, 0.30252264906268483, 0.11015850440141374, 0.2725469452328626, 0.0, 0.386006779753367, 0.0, 0.20726963897633552, 0.033277895831050425, 0.11500046545356923, 0.0665557916621004, 0.03327789583105029, 0.0, 0.08143843757076369, 0.0, 0.04703592779511504, 0.0, 0.13311158332420103, 0.0, 0.0665557916621012, 0.0, 0.06655579166210052, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0, 0.0, 0.05757499854810966], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3008522758391857, 1.0943917153744838, 0.8234862811322954, 1.7215481562925417, 0.5342576548205064, 0.6891124609916005, 0.0, 1.3258816328821947, 0.0, 0.32969169549384886, 0.32662040879443827, 0.5608145479242095, 0.24297343737122365, 0.2429734373712232, 0.0, 0.6800275731963056, 0.033277895831050404, 0.19828369626969175, 0.19560324133436693, 0.290355592636284, 0.10997983869127723, 0.148094718221699, 0.0, 0.3486533190397068, 0.0, 0.10491812119131681, 0.11500046545356922, 0.2009222789884026, 0.07424627782817508, 0.1369213263857183, 0.0, 0.9581491600638756]]</t>
+          <t>[[0.5981448522516661, 3.452800923536526, 2.536143845995947, 6.358577972166925, 0.6876973477766123, 0.7447323369277237, 0.0, 1.860498031810386, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.2675982099834029, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.2503825725900313], [2.742249488833973, 70.73021256945191, 22.66523866425233, 17.54155075421962, 5.4016671270203735, 7.714592972773921, 0.0, 4.533132618900159, 0.0, 3.051497160124377, 1.8200096580008809, 1.7727499089818197, 1.3220947998237327, 1.7561210940781435, 0.0, 1.767348380557395, 0.0, 1.0700305642182504, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.9949867279161847, 0.0, 0.5010778399499204, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 1.0060000607975048], [2.509193188726742, 22.25602763668445, 38.20289775783876, 15.830732201240485, 5.3452918179992, 4.876138603664875, 0.0, 5.581713318833864, 0.0, 1.9135613082685867, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.7897493704130143, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.9835899936848558], [7.87785903180499, 16.74317640881845, 14.794903785955011, 42.451694718034695, 5.7364374843392065, 4.990360103448232, 0.0, 10.205448223780333, 0.0, 2.673041621445877, 1.8532217813936331, 3.8522689247797044, 1.5873019523659646, 1.4814235619636973, 0.0, 3.5078627681981467, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.4355985661866207, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2298822312491415], [1.1545921920934599, 4.521413761175739, 4.875816092179794, 5.81900327284173, 6.040793599588729, 2.38048472073095, 0.0, 2.377121340600691, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.47915923195599625, 0.0, 0.9972037908719813, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.19862916101994346, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.5307823834991117], [1.3189214849254736, 7.098492275898042, 4.990494353644506, 5.438540807730167, 2.4373516796036783, 5.482507921794044, 0.0, 2.8093403035526814, 0.0, 1.0857135301134615, 0.7219477861724435, 1.1756073621155918, 0.7397826311412653, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.6226027366123915, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.6572841895933184], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.061008461837688044, 4.498582259577258, 4.382639578105533, 9.397006616662472, 2.036910740405501, 2.426832847792426, 0.0, 12.667571444652252, 0.0, 1.0960531408672098, 0.827813864855967, 2.516279198239142, 0.7401934026317223, 0.6207892044261079, 0.0, 2.964896695318166, 0.0, 0.5861761886654182, 0.5171074490201772, 1.142170631550324, 0.6723905666797703, 0.6022249069870969, 0.0, 1.4681706728082267, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 2.187951625059379], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.288700355930052, 2.086061964791826, 2.562917605952422, 0.6555618744228082, 0.9234388654998725, 0.0, 1.2491994679187797, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.5681598965388478], [0.10580176033753269, 1.8060694486415125, 1.892390309129679, 1.9529204743691084, 0.5562096106810701, 0.5672283406972923, 0.0, 0.7128423894381034, 0.0, 0.1573261439337848, 0.19303016908204845, 0.48156768273402656, 0.13145164696706657, 0.17223413817803668, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.03526725344584399, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.18911803145698197], [0.9252676285414514, 2.254333523865254, 1.8828286090459763, 4.129814751865403, 0.6102523685844544, 0.7585869276001889, 0.0, 1.2051513504278002, 0.0, 0.4205345033919183, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.10568443093039473, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.2136094935250671, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.42605213205066145], [0.09953295742310325, 1.4440845965263878, 1.1043261872344543, 1.2882419830072576, 0.42348545260492076, 1.1016406369062917, 0.0, 0.6549204625063324, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.2657722148209997, 0.0862969670688439, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.15296789571889574], [0.3784738003113154, 1.7623914560082512, 1.1517141596630311, 1.3890103028274345, 0.3310564093578771, 0.8450754776983171, 0.0, 0.5120896345906986, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.049844324025377806, 0.0, 0.07882063461243624, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.2045452176103844], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8704657798504827, 1.7755584984979746, 3.591784353848485, 0.8561985728484334, 0.884852325133488, 0.0, 3.0410346942172697, 0.0, 0.25271302472919566, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5292051830240878, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14920072231784745, 0.07053450689168789, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.5095332842678908], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7334560326498049, 1.0714601159274395, 0.3837435482682072, 0.4708928552986611, 0.0, 0.3755160446189851, 0.0, 0.32611005994980435, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689243], [0.035267253445844256, 0.6888915297703234, 0.6905621609916225, 0.764009708905338, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.03526725344584384, 0.03526725344584419, 0.0, 0.07040246089714877], [0.5408661936315918, 1.0210156915566062, 1.060339820636888, 1.4624883353815656, 0.3501968966266702, 0.4477060985422264, 0.0, 0.8080819690611425, 0.0, 0.17591360903495365, 0.17950904055170688, 0.27002706350574374, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.035267253445844166, 0.03526725344584394, 0.16522108242054565, 0.0, 0.07882063461243619, 0.0, 0.06100846183768793, 0.0, 0.0, 0.0, 0.07053450689168847, 0.0, 0.035267253445843846, 0.0, 0.09295869293410508], [0.03526725344584419, 0.994370866289755, 0.5281550145574505, 0.7095715127174085, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.04984432402537778], [0.2565440277854765, 0.869645254261883, 0.6937997157399078, 0.713049039743696, 0.2738537045298144, 0.31206886765491826, 0.0, 0.37610615783645407, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378375], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0803437037221253, 0.8813013177531895, 1.8113041415597653, 0.4068018738819371, 0.5464005171597189, 0.0, 1.1679907631196826, 0.0, 0.21305700411948192, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.304879576549922, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.09295869293410507], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.6084402579242185, 0.21936197425475323, 0.396871650229194, 0.0, 0.27355906750344045, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.049844324025378264, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.06100846183768806], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4897868848649545, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0352672534458439, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413], [0.4001251337669047, 0.6198491748065699, 0.4273242469283259, 1.0826137350261194, 0.2848568208032502, 0.36113282065740643, 0.0, 0.24265727439737708, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.061008461837688405], [0.0, 0.4156007891581909, 0.12649757979606965, 0.5688146222788149, 0.1891180314569826, 0.16505203903612162, 0.0, 0.3465733511849521, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714862], [0.07882063461243573, 0.36451811415950947, 0.30060213235205285, 0.30724590663789775, 0.11134392501747144, 0.226738996961806, 0.0, 0.3779817644814471, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.06100846183768818], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3375143015921877, 1.116360390087913, 0.7961253638753412, 1.7836647488242299, 0.5445240190512478, 0.7102203423466364, 0.03526725344584421, 1.3601957082632739, 0.08629696706884245, 0.31061436477554316, 0.3405106652361291, 0.5711111135181711, 0.2480239721320222, 0.2550161002467814, 0.03526725344584419, 0.6920024461921163, 0.0, 0.20133562700562752, 0.17199986720418067, 0.2918273519860693, 0.11114875584899042, 0.15685226892985182, 0.03526725344584421, 0.3430110003442121, 0.0, 0.11114875584898999, 0.11134392501746998, 0.1853827553268103, 0.06100846183768915, 0.1450689202333601, 0.0, 0.968709870225156]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.9783</v>
+        <v>75.58499999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>14.14</v>
+        <v>13.08</v>
       </c>
       <c r="D4" t="n">
-        <v>3.311499999999999</v>
+        <v>3.4085</v>
       </c>
       <c r="E4" t="n">
-        <v>22.44</v>
+        <v>21.71</v>
       </c>
       <c r="F4" t="n">
-        <v>5.7174</v>
+        <v>6.0314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0129</v>
+        <v>0.0153</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2786</v>
+        <v>2.5436</v>
       </c>
       <c r="I4" t="n">
-        <v>128.43</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>321.33</v>
+        <v>322.26</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8786</v>
+        <v>6.036999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.966199999999999</v>
+        <v>2.8144</v>
       </c>
       <c r="M4" t="n">
-        <v>4.7942</v>
+        <v>4.6052</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[78.48, 27.27, 114.3, 45.32, 12.09, 20.39, 0.81, 11.57, 2.73, 3.05, 1.75, 0.19, 1.57, 0.1, 0.29, 0.15, 0.0, 0.13, 0.0, 0.02, 0.01, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[78.54, 20.19, 102.14, 46.63, 15.25, 28.99, 0.51, 16.13, 2.52, 3.98, 2.94, 0.39, 2.12, 0.04, 0.4, 0.21, 0.08, 0.1, 0.0, 0.07, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[24.47, 27.53, 32.52, 24.1, 28.16, 23.68, 29.44, 28.5, 24.37, 28.78, 22.99, 26.79]</t>
+          <t>[59.36, 0.22, 55.35, 0.18, 63.48, 12.4, 1.03, 52.45, 0.38, 56.31, 0.34, 20.76]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[4.37, 86.39, 134.22, 21.17, 34.2, 3.89, 9.84, 2.68, 6.72, 1.62, 2.89, 0.88, 3.1, 0.71, 1.71, 0.49, 2.06, 0.41, 0.82, 0.24, 0.72, 0.1, 0.39, 0.07, 0.5, 0.07, 0.09, 0.07, 0.13, 0.0, 0.03, 0.01]</t>
+          <t>[14.59, 66.02, 146.81, 17.52, 36.6, 4.36, 10.14, 2.57, 7.17, 1.19, 3.57, 0.86, 3.49, 0.5, 1.99, 0.56, 1.72, 0.3, 0.51, 0.1, 0.43, 0.07, 0.15, 0.02, 0.15, 0.04, 0.06, 0.02, 0.02, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[5.1, 118.45, 39.57, 74.67, 12.85, 16.6, 0.0, 20.34, 0.0, 5.22, 3.34, 4.97, 2.31, 2.81, 0.0, 4.07, 0.01, 1.57, 0.76, 1.55, 0.63, 0.8, 0.0, 1.3, 0.0, 0.62, 0.26, 0.56, 0.17, 0.34, 0.0, 2.18, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[4.11, 110.39, 58.42, 74.49, 13.01, 16.22, 0.0, 17.56, 0.0, 4.37, 2.09, 4.38, 1.57, 1.46, 0.0, 3.47, 0.0, 1.07, 0.65, 1.51, 0.53, 0.63, 0.01, 1.4, 0.0, 0.54, 0.24, 0.68, 0.2, 0.26, 0.0, 2.6, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[5.47, 0.52, 4.91, 1.83, 0.7, 1.0, 0.03, 1.52, 0.36, 2.59, 4.29, 1.22], [0.52, 6.96, 1.88, 4.69, 2.11, 0.54, 1.34, 0.08, 1.69, 0.62, 2.27, 4.68], [5.52, 2.19, 9.02, 1.21, 5.52, 1.81, 0.74, 1.63, 0.09, 1.71, 0.59, 2.36], [1.99, 4.96, 1.28, 5.15, 1.09, 4.02, 2.09, 0.58, 1.09, 0.01, 1.32, 0.46], [0.75, 1.99, 6.26, 1.18, 6.53, 1.02, 4.48, 2.25, 0.77, 1.3, 0.07, 1.45], [1.06, 0.75, 2.07, 4.52, 1.17, 5.58, 1.08, 4.11, 1.6, 0.51, 1.11, 0.05], [0.07, 1.56, 0.91, 2.48, 5.03, 1.06, 8.5, 1.11, 4.75, 1.52, 0.69, 1.68], [1.23, 0.11, 1.52, 0.55, 2.74, 5.11, 1.34, 7.04, 1.24, 5.7, 1.35, 0.46], [0.55, 1.32, 0.08, 1.15, 0.52, 1.68, 6.01, 1.49, 4.93, 1.12, 3.61, 1.86], [2.44, 0.37, 1.77, 0.06, 1.43, 0.67, 1.55, 6.22, 1.14, 7.7, 1.02, 4.37], [3.91, 1.84, 0.57, 0.75, 0.07, 1.0, 0.95, 1.65, 4.34, 1.3, 5.8, 0.74], [0.84, 4.83, 2.17, 0.46, 1.23, 0.09, 1.26, 0.78, 2.3, 4.55, 0.8, 7.38]]</t>
+          <t>[[15.6, 0.01, 14.03, 0.01, 6.11, 1.14, 0.05, 5.38, 0.06, 10.41, 0.03, 6.44], [0.02, 0.03, 0.02, 0.04, 0.0, 0.01, 0.02, 0.01, 0.01, 0.02, 0.03, 0.01], [15.56, 0.01, 13.05, 0.02, 15.64, 0.98, 0.07, 3.83, 0.03, 4.19, 0.01, 1.77], [0.02, 0.02, 0.03, 0.0, 0.03, 0.03, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0], [6.12, 0.01, 17.47, 0.01, 16.03, 3.65, 0.24, 11.64, 0.05, 6.33, 0.01, 1.68], [0.75, 0.02, 0.91, 0.03, 4.27, 2.99, 0.02, 2.42, 0.05, 0.73, 0.03, 0.13], [0.03, 0.04, 0.12, 0.01, 0.21, 0.02, 0.17, 0.15, 0.0, 0.19, 0.02, 0.06], [4.82, 0.01, 4.24, 0.02, 12.33, 2.49, 0.25, 13.52, 0.06, 13.12, 0.01, 1.4], [0.03, 0.02, 0.02, 0.0, 0.03, 0.05, 0.01, 0.06, 0.02, 0.08, 0.03, 0.03], [10.83, 0.03, 4.01, 0.02, 7.23, 0.81, 0.13, 12.99, 0.05, 15.01, 0.01, 5.07], [0.03, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.03, 0.05, 0.03, 0.12, 0.03], [5.33, 0.01, 1.36, 0.0, 1.43, 0.2, 0.04, 2.17, 0.0, 5.95, 0.02, 4.14]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.07, 2.57, 0.97, 0.74, 0.17, 0.14, 0.0, 0.27, 0.0, 0.02, 0.01, 0.04, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03], [3.18, 67.42, 12.32, 16.68, 2.62, 4.69, 0.0, 3.22, 0.0, 1.8, 0.83, 1.16, 0.45, 0.93, 0.0, 0.76, 0.0, 0.56, 0.16, 0.28, 0.08, 0.1, 0.0, 0.31, 0.0, 0.08, 0.07, 0.1, 0.03, 0.08, 0.0, 0.2], [0.18, 11.82, 11.3, 6.68, 1.85, 1.95, 0.0, 2.01, 0.0, 0.65, 0.42, 0.53, 0.26, 0.31, 0.0, 0.39, 0.0, 0.07, 0.15, 0.2, 0.04, 0.1, 0.0, 0.13, 0.0, 0.11, 0.06, 0.03, 0.05, 0.04, 0.0, 0.15], [1.06, 16.24, 5.81, 29.55, 2.78, 3.29, 0.0, 6.22, 0.0, 1.27, 0.79, 1.51, 0.65, 0.65, 0.0, 1.27, 0.0, 0.47, 0.12, 0.58, 0.22, 0.25, 0.0, 0.35, 0.0, 0.24, 0.05, 0.22, 0.03, 0.08, 0.0, 0.73], [0.16, 2.22, 1.51, 3.1, 2.47, 0.89, 0.0, 0.83, 0.0, 0.28, 0.18, 0.29, 0.12, 0.09, 0.0, 0.25, 0.0, 0.09, 0.06, 0.02, 0.03, 0.05, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.09], [0.13, 4.16, 2.06, 3.12, 0.82, 3.14, 0.0, 1.19, 0.0, 0.2, 0.17, 0.29, 0.31, 0.07, 0.0, 0.3, 0.01, 0.08, 0.03, 0.09, 0.03, 0.03, 0.0, 0.1, 0.0, 0.02, 0.01, 0.05, 0.0, 0.06, 0.0, 0.06], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 3.39, 1.43, 5.27, 0.76, 1.06, 0.0, 3.94, 0.0, 0.27, 0.39, 0.62, 0.25, 0.17, 0.0, 0.67, 0.0, 0.09, 0.1, 0.28, 0.14, 0.16, 0.0, 0.28, 0.0, 0.11, 0.03, 0.14, 0.05, 0.02, 0.0, 0.6], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 2.29, 0.62, 1.16, 0.16, 0.21, 0.0, 0.28, 0.0, 0.09, 0.04, 0.06, 0.04, 0.05, 0.0, 0.05, 0.0, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.03], [0.01, 1.05, 0.49, 0.8, 0.17, 0.12, 0.0, 0.24, 0.0, 0.1, 0.13, 0.04, 0.02, 0.03, 0.0, 0.03, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.06, 1.43, 0.62, 1.6, 0.22, 0.19, 0.0, 0.32, 0.0, 0.13, 0.09, 0.05, 0.06, 0.07, 0.0, 0.06, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.01, 0.66, 0.31, 0.57, 0.13, 0.15, 0.0, 0.13, 0.0, 0.1, 0.03, 0.04, 0.03, 0.07, 0.0, 0.01, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.01, 1.0, 0.38, 0.58, 0.06, 0.1, 0.0, 0.19, 0.0, 0.06, 0.05, 0.07, 0.01, 0.12, 0.0, 0.03, 0.0, 0.03, 0.01, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.92, 0.42, 1.36, 0.19, 0.17, 0.0, 0.54, 0.0, 0.03, 0.06, 0.06, 0.0, 0.04, 0.0, 0.09, 0.0, 0.02, 0.03, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.72, 0.17, 0.31, 0.06, 0.05, 0.0, 0.06, 0.0, 0.03, 0.01, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.28, 0.12, 0.17, 0.03, 0.04, 0.0, 0.07, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.43, 0.17, 0.49, 0.07, 0.06, 0.0, 0.09, 0.0, 0.02, 0.01, 0.04, 0.04, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.19, 0.06, 0.2, 0.02, 0.01, 0.0, 0.07, 0.0, 0.02, 0.02, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.26, 0.08, 0.24, 0.02, 0.02, 0.0, 0.03, 0.0, 0.0, 0.02, 0.03, 0.02, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37, 0.18, 0.46, 0.06, 0.05, 0.0, 0.06, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.18, 0.12, 0.18, 0.02, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.11, 0.02, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.04, 0.21, 0.0, 0.02, 0.0, 0.09, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01], [0.0, 0.02, 0.03, 0.03, 0.02, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.07, 0.05, 0.06, 0.0, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.25, 0.18, 0.71, 0.09, 0.09, 0.0, 0.32, 0.0, 0.06, 0.05, 0.04, 0.02, 0.05, 0.0, 0.08, 0.0, 0.0, 0.01, 0.01, 0.02, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.1]]</t>
+          <t>[[0.17, 0.96, 0.92, 1.3, 0.12, 0.12, 0.0, 0.25, 0.0, 0.08, 0.01, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.76, 59.9, 16.01, 16.14, 3.11, 4.82, 0.0, 3.07, 0.0, 1.52, 0.48, 0.92, 0.35, 0.36, 0.0, 0.68, 0.0, 0.3, 0.15, 0.29, 0.16, 0.2, 0.0, 0.19, 0.0, 0.11, 0.04, 0.07, 0.06, 0.05, 0.0, 0.35], [0.57, 16.28, 23.52, 8.26, 2.41, 2.23, 0.0, 2.05, 0.0, 0.48, 0.39, 0.3, 0.23, 0.17, 0.0, 0.36, 0.0, 0.17, 0.11, 0.18, 0.02, 0.05, 0.0, 0.2, 0.0, 0.06, 0.07, 0.04, 0.0, 0.04, 0.0, 0.06], [1.79, 14.87, 7.96, 30.0, 2.79, 3.28, 0.0, 5.07, 0.0, 1.03, 0.54, 1.62, 0.41, 0.37, 0.0, 1.27, 0.0, 0.35, 0.15, 0.54, 0.07, 0.15, 0.0, 0.44, 0.0, 0.16, 0.05, 0.3, 0.05, 0.04, 0.0, 1.0], [0.08, 3.01, 2.58, 2.95, 1.63, 0.87, 0.0, 0.69, 0.0, 0.18, 0.1, 0.15, 0.16, 0.09, 0.0, 0.15, 0.0, 0.02, 0.06, 0.05, 0.09, 0.02, 0.01, 0.05, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.03], [0.16, 4.36, 2.02, 3.28, 1.0, 1.86, 0.0, 1.48, 0.0, 0.36, 0.15, 0.24, 0.15, 0.12, 0.0, 0.17, 0.0, 0.02, 0.04, 0.05, 0.05, 0.06, 0.0, 0.09, 0.0, 0.07, 0.04, 0.06, 0.01, 0.06, 0.0, 0.24], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.25, 3.25, 1.92, 4.66, 0.84, 1.41, 0.0, 2.6, 0.0, 0.27, 0.12, 0.51, 0.14, 0.14, 0.0, 0.4, 0.0, 0.07, 0.05, 0.2, 0.05, 0.02, 0.0, 0.15, 0.0, 0.04, 0.0, 0.04, 0.03, 0.02, 0.0, 0.34], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.62, 0.52, 0.92, 0.18, 0.21, 0.0, 0.29, 0.0, 0.08, 0.07, 0.11, 0.01, 0.03, 0.0, 0.04, 0.0, 0.02, 0.01, 0.01, 0.02, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.06], [0.04, 0.49, 0.48, 0.5, 0.1, 0.15, 0.0, 0.16, 0.0, 0.01, 0.02, 0.02, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.06, 1.11, 0.39, 1.33, 0.14, 0.28, 0.0, 0.41, 0.0, 0.06, 0.05, 0.12, 0.04, 0.05, 0.0, 0.08, 0.0, 0.02, 0.01, 0.06, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.05], [0.04, 0.41, 0.28, 0.4, 0.07, 0.08, 0.0, 0.13, 0.0, 0.03, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.02, 0.44, 0.2, 0.32, 0.04, 0.06, 0.0, 0.13, 0.0, 0.01, 0.01, 0.05, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.89, 0.48, 1.12, 0.13, 0.15, 0.0, 0.31, 0.0, 0.03, 0.03, 0.07, 0.02, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.42, 0.13, 0.28, 0.04, 0.06, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.2, 0.08, 0.15, 0.04, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.34, 0.16, 0.42, 0.08, 0.1, 0.0, 0.11, 0.0, 0.02, 0.03, 0.01, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.05, 0.0, 0.0, 0.0, 0.04], [0.01, 0.16, 0.08, 0.11, 0.01, 0.05, 0.0, 0.07, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21, 0.1, 0.11, 0.01, 0.05, 0.0, 0.08, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.16, 0.11, 0.54, 0.05, 0.12, 0.0, 0.09, 0.0, 0.03, 0.03, 0.05, 0.01, 0.01, 0.0, 0.02, 0.0, 0.03, 0.01, 0.01, 0.01, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.08, 0.17, 0.02, 0.02, 0.0, 0.07, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.06, 0.02, 0.02, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.1, 0.05, 0.33, 0.02, 0.03, 0.0, 0.06, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.02, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.09, 0.01, 0.09, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.48, 0.12, 0.82, 0.06, 0.15, 0.0, 0.26, 0.0, 0.07, 0.01, 0.08, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.01, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.22]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.655879428523914</v>
+        <v>3.66392535404312</v>
       </c>
       <c r="C5" t="n">
-        <v>2.946251856172517</v>
+        <v>2.081730049742281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5957891825134122</v>
+        <v>0.571862527186386</v>
       </c>
       <c r="E5" t="n">
-        <v>4.101999512432931</v>
+        <v>6.395772040965813</v>
       </c>
       <c r="F5" t="n">
-        <v>1.375128808512133</v>
+        <v>1.15394975627191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02070241531802509</v>
+        <v>0.01693841787180845</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2876456848277061</v>
+        <v>0.2210181892967183</v>
       </c>
       <c r="I5" t="n">
-        <v>99.20496509751918</v>
+        <v>6.644358509291925</v>
       </c>
       <c r="J5" t="n">
-        <v>6.115643874523761</v>
+        <v>5.241412023491379</v>
       </c>
       <c r="K5" t="n">
-        <v>1.846738757918943</v>
+        <v>1.600427755320433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9795588598956164</v>
+        <v>0.8416368813211549</v>
       </c>
       <c r="M5" t="n">
-        <v>1.820939966061485</v>
+        <v>1.732934205329215</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[20.356070347687442, 24.09890246463519, 23.680160472429232, 16.02740153611932, 6.102614193933612, 5.954653642320433, 1.7070149384232096, 4.667451124543246, 2.2797148944550067, 2.155806113731009, 1.2599603168354152, 0.4836320915737501, 1.4160155366379286, 0.36055512754639885, 0.5156549233741492, 0.3840572873934309, 0.0, 0.3648287269390939, 0.0, 0.13999999999999987, 0.09949874371066195, 0.13999999999999987, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.768862521176503, 15.410188188338259, 12.49241369792083, 10.514423426893172, 5.776460854190912, 5.903380387540684, 0.8306021911842034, 4.636065141906444, 1.752027397046062, 2.1399999999999992, 2.091984703576965, 0.733416661932356, 1.5638414241859688, 0.19595917942265423, 0.6480740698407855, 0.5530822723609935, 0.27129319932501084, 0.3316624790355398, 0.0, 0.2551470164434616, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[28.502791091400148, 32.51782741820246, 35.61530008296998, 28.285508657261225, 30.120995999468544, 28.67991631786956, 33.558402822542085, 29.56839528956551, 26.927552803773317, 35.92480480113985, 27.785066132726765, 29.68915458547112]</t>
+          <t>[17.37384240748143, 1.3459569086712984, 12.889821565871268, 0.6225752966509358, 12.719654083346764, 16.870091878825075, 2.934126786626642, 15.649520759435415, 1.1382442620105755, 24.053978880842145, 2.400916491675626, 18.833013566606912]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[9.445268656846132, 69.23364716667757, 66.24886112228648, 23.181913208361383, 34.61704782329077, 3.987217074602285, 10.759851300087744, 3.2950872522590355, 6.69190555820986, 2.248466143841175, 2.939030452377108, 1.2592060990957756, 2.8089143810376274, 1.1251222155837115, 1.9610966319893568, 0.9746281342132488, 2.6146510283401114, 0.8135723692456623, 1.359264507003696, 0.5122499389946285, 1.2655433615645104, 0.33166247903553986, 0.6766830868286867, 0.29171904291629636, 0.9219544457292888, 0.2917190429162962, 0.3192177939902476, 0.291719042916296, 0.4160528812542943, 0.0, 0.17058722109231972, 0.09949874371066195]</t>
+          <t>[13.075239959557146, 57.77248133843655, 57.40412790035226, 14.556428133302488, 26.58232495475142, 4.177367592156574, 6.717172023999387, 2.6879546127120526, 5.444364058363474, 1.3615799645999498, 3.2225921243620017, 1.058489489791939, 3.6592212286222865, 0.806225774829855, 2.160995141132899, 0.9520504188329515, 2.149790687485643, 0.6244997998398402, 1.2041179344233672, 0.29999999999999977, 0.9721625378505382, 0.2551470164434616, 0.45552167895721574, 0.13999999999999987, 0.409267638593623, 0.19595917942265398, 0.23748684174075801, 0.13999999999999987, 0.13999999999999996, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[12.445481107614922, 84.86216766027131, 47.95711730285714, 59.20271193112694, 21.146335379918668, 21.876014262200513, 0.0, 23.70199147751092, 0.0, 5.1702611152629405, 4.792118529418905, 5.168084751627051, 2.924705113340486, 5.021344441481781, 0.0, 4.357189461109079, 0.09949874371066195, 2.750472686648604, 1.233855745214974, 2.1324868112136115, 1.006528688115744, 1.587450786638752, 0.0, 1.5905973720586866, 0.0, 0.9141115905621151, 0.5765414122159827, 1.19431989014669, 0.6936137253543935, 0.6666333324999586, 0.0, 4.087493119260263, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[9.091639016151047, 79.03099328744388, 64.7305461123263, 58.95956156553405, 13.536982677096102, 14.386507567856766, 0.0, 18.94746421028418, 0.0, 3.260843449170781, 2.2320170250246765, 4.413116812412741, 1.7790727922150913, 1.6150541786577934, 0.0, 3.439345868039444, 0.0, 1.313430622454038, 0.8760707733967615, 1.7634908562280673, 1.0144456614328838, 1.0830974102083342, 0.09949874371066197, 2.2627416997969525, 0.0, 0.984073168011404, 0.567802782663136, 1.2639620247459973, 0.44721359549995754, 0.5219195340279948, 0.0, 6.023288138550245, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[8.619112483312886, 2.104661492972206, 7.780867560882915, 5.362937627830476, 1.8357559750685828, 1.7146428199482247, 0.17058722109231989, 2.7549228664338314, 1.0248902380255163, 5.796714586729277, 8.047726386998995, 2.991922458888261], [2.022275945562325, 10.550753527592239, 7.280494488700601, 9.146250597922633, 4.9313182821635015, 2.0170275159253532, 2.0795191751941116, 0.27129319932501095, 3.084461055030522, 1.7365483005088005, 5.556716656443807, 7.065238849465739], [8.273427343006045, 8.135963372582241, 14.232343447233141, 4.138345079859817, 8.539882903178478, 4.659817592996535, 1.9779787663167654, 2.4643660442393696, 0.3766961640367478, 2.6881034206294965, 1.721017141111614, 5.174011982978004], [5.046771245063519, 9.09276635573575, 3.6526155012538655, 8.061482493933733, 3.723157262324551, 7.622309361341876, 4.682082869834748, 1.6073580808270447, 1.7268178826963776, 0.09949874371066196, 2.1301643129110936, 1.260317420335053], [1.7965244223221681, 5.096067111018065, 9.484323908429111, 4.259999999999996, 9.875682254912823, 3.2862744864055413, 7.309555390035699, 5.006745449890578, 2.199340810333859, 1.9824227601599007, 0.32419130154894626, 2.81202773812777], [1.9535608513685987, 2.4914855006601986, 5.130799158025972, 8.204242804793143, 2.891556674180884, 8.752348256325272, 3.445809048685084, 6.952546296142158, 4.591296113299596, 1.3819913169047044, 2.0875583824171247, 0.2598076211353318], [0.291719042916296, 2.5507645912549433, 2.324198786678968, 4.952736617265246, 8.427876363592434, 2.9557401780264794, 13.430934442547175, 3.114145147548518, 8.333516664650045, 3.6400000000000046, 1.9426528253910917, 2.6939933184772373], [2.092152002126041, 0.4667976006793524, 2.4350770008359075, 1.6755596080116046, 5.365855011086299, 8.219361289054039, 3.937562697913516, 9.71382519916845, 4.142752708043294, 9.817840903172137, 3.542245050811701, 1.5061208450851487], [1.6635804759614137, 2.53329824537104, 0.3919183588453081, 1.9306734576307818, 1.3891004283348265, 4.36091733469003, 10.35518710598703, 4.635720008801222, 6.970301284736553, 3.742405643433111, 6.474403447422779, 4.254456487026279], [5.378326877384826, 0.8905616205518845, 2.727104691793111, 0.27640549922170465, 2.1506045661627335, 1.6855562879951531, 3.779880950506242, 10.092155369394586, 3.677009654597064, 16.895265609039722, 4.390854131031917, 7.464120845752693], [8.179358165528633, 4.842974292725497, 2.0261046369820117, 1.3143439428094916, 0.2551470164434616, 1.9026297590440449, 2.7326726843879423, 3.9531632903283977, 7.051553020434579, 4.7528938553264615, 8.50529246998597, 2.1148049555455457], [2.667283262047735, 7.7123991079300405, 4.8021974136847, 1.291665591397403, 2.3274664336999575, 0.3766961640367477, 2.180000000000001, 1.931734971469948, 4.86312656631513, 7.69074118664775, 2.1863211109075436, 11.039728257525189]]</t>
+          <t>[[8.74299719775776, 0.09949874371066195, 5.263943388753341, 0.09949874371066197, 3.0851093983844398, 2.097713040432365, 0.2598076211353319, 3.825650271522474, 0.23748684174075826, 4.8334149418397745, 0.2215851980616033, 5.136769412772974], [0.13999999999999987, 0.2984962311319859, 0.13999999999999996, 0.31368774282716244, 0.0, 0.09949874371066195, 0.13999999999999987, 0.09949874371066199, 0.09949874371066199, 0.13999999999999999, 0.2984962311319859, 0.09949874371066199], [5.6909050246863195, 0.09949874371066195, 5.5197373125901565, 0.13999999999999993, 5.608065620158166, 1.7203488018422306, 0.35369478367654705, 2.3960592647094523, 0.17058722109232008, 2.536513354981599, 0.09949874371066199, 2.111184501648305], [0.13999999999999987, 0.13999999999999996, 0.17058722109231986, 0.0, 0.17058722109231977, 0.17058722109231986, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.19899748742132398, 0.0], [3.1089548082916876, 0.09949874371066199, 5.611514946963966, 0.09949874371066199, 6.408517769344173, 4.7966133886316085, 0.8014985963805554, 4.78856972383195, 0.2598076211353315, 3.739130915065692, 0.09949874371066199, 2.1488601629701267], [1.243985530462473, 0.13999999999999999, 1.6976159754196483, 0.17058722109232008, 5.306326412877369, 5.7140091004477735, 0.13999999999999987, 3.47902285131903, 0.32787192621509975, 1.1819898476721362, 0.17058722109231975, 0.3912799509302768], [0.22158519806160307, 0.31368774282716244, 0.3544009029333872, 0.09949874371066195, 0.7251896303726358, 0.13999999999999987, 0.7355949972641196, 0.5361902647381808, 0.0, 0.7706490770772383, 0.19899748742132398, 0.27640549922170504], [3.2722469344473386, 0.09949874371066199, 2.088635918488428, 0.13999999999999987, 4.722404048787017, 3.263418453094853, 0.7123903424387503, 7.87588725160537, 0.2764054992217045, 5.828001372683435, 0.09949874371066195, 1.6552945357246853], [0.17058722109231994, 0.13999999999999999, 0.13999999999999999, 0.0, 0.1705872210923197, 0.2598076211353322, 0.09949874371066195, 0.23748684174075824, 0.13999999999999993, 0.30594117081556693, 0.2984962311319859, 0.2215851980616033], [4.8125980509491955, 0.22158519806160334, 2.551450567814318, 0.13999999999999987, 3.8179968569918965, 1.1721348045340176, 0.4394314508543964, 5.678899541284386, 0.21794494717703364, 13.200374994673444, 0.09949874371066199, 5.242623389105878], [0.17058722109231975, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.0, 0.19899748742132398, 0.17058722109231972, 0.4974937185533102, 0.17058722109231977, 1.1939849245279437, 0.17058722109231983], [5.1459790127827, 0.09949874371066195, 1.7917589123540045, 0.0, 1.6926606275328802, 0.4898979485566352, 0.24166091947189128, 2.1309856874226063, 0.0, 6.145526828515194, 0.13999999999999987, 5.4662967354507925]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.35369478367654733, 8.400303565943322, 2.879079714075316, 2.1336353952819587, 0.762299153875957, 0.4247352116319061, 0.0, 1.2950289572052063, 0.0, 0.13999999999999993, 0.09949874371066195, 0.24166091947189108, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.22158519806160357], [10.559715905269421, 67.69227134614408, 15.166990472733872, 15.53375678965008, 3.104126286090824, 5.252989624965959, 0.0, 3.208052368649862, 0.0, 2.908607914449797, 1.587797216271648, 1.5538339679644015, 0.7921489758877432, 1.511654722481295, 0.0, 1.1672189169131895, 0.0, 1.227354879405301, 0.3929376540877704, 0.762627038597505, 0.271293199325011, 0.45825756949558405, 0.0, 0.6737210105080588, 0.0, 0.271293199325011, 0.3241913015489461, 0.4795831523312725, 0.17058722109231994, 0.27129319932501084, 0.0, 0.7745966692414832], [0.5895761189193468, 15.21011505544912, 24.027276166889994, 9.051939018795919, 4.31827511860928, 4.519679192155126, 0.0, 3.8768414979206995, 0.0, 1.1434596626029272, 0.8852118390532293, 0.9429209935090008, 0.5589275444992845, 0.7027801932325639, 0.0, 0.8111103500757464, 0.0, 0.2551470164434615, 0.43301270189221963, 0.4898979485566355, 0.19595917942265412, 0.41231056256176624, 0.0, 0.39127995093027673, 0.0, 0.39736632972611075, 0.23748684174075824, 0.17058722109231983, 0.21794494717703375, 0.24166091947189153, 0.0, 0.4974937185533102], [2.357201730866496, 15.151976768725591, 8.007115585527663, 42.68544834015453, 4.283876748927307, 3.9932317738894145, 0.0, 9.542096205761082, 0.0, 1.6115520469410847, 1.3877679921370134, 2.451509738915999, 0.9205976319760986, 1.186381051770468, 0.0, 2.0681150838384226, 0.0, 0.8056674251823766, 0.40693979898751625, 1.2663332894621377, 0.5400000000000004, 0.5894913061275798, 0.0, 0.9630680142129114, 0.0, 0.5122499389946281, 0.21794494717703364, 0.641560597293818, 0.22158519806160312, 0.27129319932501084, 0.0, 1.6664633209284867], [0.688767014308902, 2.762535067650726, 3.8768414979206964, 4.970915408654626, 10.397552596645038, 2.2711010545548165, 0.0, 1.6556267695347275, 0.0, 0.7359347797189646, 0.6225752966509357, 0.6526101439603892, 0.38157568056677843, 0.31921779399024747, 0.0, 0.653834841531101, 0.0, 0.3192177939902475, 0.23748684174075815, 0.13999999999999987, 0.17058722109231977, 0.2179449471770336, 0.0, 0.19899748742132398, 0.0, 0.09949874371066197, 0.09949874371066195, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.34914180500192193], [0.5030904491242106, 4.975379382519488, 5.082951898257546, 3.9198979578555373, 2.355334371166865, 11.082436555198496, 0.0, 2.331072714438568, 0.0, 0.4690415759823426, 0.47021271782035, 0.738850458482635, 0.8682741502544009, 0.2917190429162965, 0.0, 0.5916079783099617, 0.09949874371066195, 0.27129319932501084, 0.17058722109231989, 0.3192177939902474, 0.17058722109231975, 0.1705872210923199, 0.0, 0.3316624790355398, 0.0, 0.13999999999999993, 0.09949874371066199, 0.259807621135332, 0.0, 0.23748684174075815, 0.0, 0.2374868417407581], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.27640549922170443, 3.1429126618472876, 2.676770442155996, 8.641591288645861, 1.5755633912984892, 2.129882625874018, 0.0, 10.288653945001759, 0.0, 0.690724257573164, 1.0944861808172828, 1.419718281913704, 0.7533259586659682, 0.4910193478876368, 0.0, 2.1356731959735753, 0.0, 0.2861817604250836, 0.3316624790355398, 0.8255906976220121, 0.4004996878900157, 0.48414873747640846, 0.0, 0.5844655678480978, 0.0, 0.37134889255254305, 0.17058722109232, 0.7073895673530949, 0.29580398915498096, 0.13999999999999993, 0.0, 1.9544820285692093], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923198, 3.0831639593119275, 1.1115754585272202, 1.5538339679644018, 0.4409081537009725, 0.7783957862167549, 0.0, 0.8840814442120143, 0.0, 0.3766961640367476, 0.19595917942265412, 0.2374868417407581, 0.1959591794226542, 0.4092676385936224, 0.0, 0.21794494717703408, 0.0, 0.09949874371066196, 0.22158519806160318, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.22158519806160315], [0.09949874371066196, 1.8887826767524107, 1.081619156635088, 1.637070554374489, 0.6489221833163049, 0.38157568056677843, 0.0, 0.8014985963805554, 0.0, 0.4582575694955851, 0.743706931526122, 0.24166091947189122, 0.19899748742132392, 0.17058722109231983, 0.0, 0.221585198061603, 0.0, 0.1705872210923199, 0.09949874371066196, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.23748684174075835, 1.839864125417962, 1.1382442620105755, 3.258834147360061, 0.831624915451672, 0.5233545643251812, 0.0, 0.7984985911070862, 0.0, 0.3912799509302768, 0.3491418050019225, 0.21794494717703403, 0.34117444218464005, 0.43023249528597846, 0.0, 0.2764054992217046, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.09949874371066199, 0.9614572273377526, 0.6587108622149782, 0.8631917515824625, 0.3648287269390938, 0.5545268253204714, 0.0, 0.4616275555033515, 0.0, 0.3872983346207415, 0.2984962311319857, 0.19595917942265403, 0.17058722109232, 0.5339475629684992, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109232], [0.09949874371066199, 1.760681686165901, 0.7453858061433689, 1.1240996397117111, 0.2764054992217045, 0.2999999999999998, 0.0, 0.6276145313805283, 0.0, 0.34117444218464005, 0.35707142142714204, 0.43023249528597846, 0.09949874371066196, 0.7386474125047763, 0.0, 0.22158519806160293, 0.0, 0.22158519806160304, 0.09949874371066196, 0.13999999999999987, 0.09949874371066195, 0.19899748742132392, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3278719262150995], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265428, 1.1196428001822727, 1.0409610943738488, 2.0905501668221222, 0.503884907493765, 0.5487257967327581, 0.0, 1.651786911196476, 0.0, 0.17058722109231986, 0.2764054992217048, 0.23748684174075824, 0.0, 0.19595917942265395, 0.0, 0.3766961640367479, 0.0, 0.19899748742132395, 0.17058722109231989, 0.13999999999999987, 0.09949874371066193, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.1705872210923197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.980303007117849, 0.4255584566190644, 0.6114736298484179, 0.3104834939252006, 0.21794494717703392, 0.0, 0.23748684174075824, 0.0, 0.17058722109231975, 0.09949874371066196, 0.09949874371066196, 0.0, 0.34117444218464005, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.17058722109231994, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.7222188034107121, 0.4308131845707599, 0.5109794516416488, 0.17058722109231989, 0.24166091947189122, 0.0, 0.2917190429162966, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265406, 0.8972736483370052, 0.42555845661906444, 1.2368912644206043, 0.2917190429162965, 0.23748684174075835, 0.0, 0.42649736224272267, 0.0, 0.13999999999999987, 0.09949874371066199, 0.24166091947189108, 0.2416609194718912, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.09949874371066199, 0.4624932431938871, 0.3104834939252008, 0.5291502622129177, 0.13999999999999987, 0.09949874371066199, 0.0, 0.3536947836765474, 0.0, 0.13999999999999987, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5936328831862331, 0.27129319932501095, 0.6019966777316967, 0.13999999999999987, 0.13999999999999987, 0.0, 0.17058722109231994, 0.0, 0.0, 0.19899748742132392, 0.29849623113198565, 0.13999999999999987, 0.13999999999999987, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7022107945624299, 0.4093897898091749, 0.9531002045955083, 0.23748684174075824, 0.21794494717703383, 0.0, 0.2374868417407583, 0.0, 0.17058722109231975, 0.0, 0.1705872210923198, 0.0, 0.22158519806160318, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4556314299957808, 0.35440090293338716, 0.5546169849544815, 0.13999999999999993, 0.17058722109231972, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.1399999999999999, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0], [0.0, 0.421781934179263, 0.13999999999999993, 0.1959591794226542, 0.0, 0.0, 0.0, 0.17058722109231966, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5660388679233963, 0.1959591794226541, 0.6048966853934645, 0.0, 0.13999999999999993, 0.0, 0.3766961640367477, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066193], [0.0, 0.13999999999999993, 0.17058722109231975, 0.1705872210923198, 0.13999999999999987, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.2551470164434615, 0.21794494717703358, 0.27640549922170476, 0.0, 0.1705872210923198, 0.0, 0.1959591794226542, 0.0, 0.19899748742132395, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231964, 0.9526279441628825, 0.5546169849544815, 1.6810413439294103, 0.28618176042508353, 0.3192177939902474, 0.0, 0.9887365675446632, 0.0, 0.34117444218464005, 0.21794494717703372, 0.19595917942265398, 0.13999999999999987, 0.4092676385936236, 0.0, 0.33704599092705356, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999987, 0.09949874371066199, 0.0, 0.1705872210923197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066197, 0.09949874371066199, 0.0, 0.36055512754639873]]</t>
+          <t>[[0.9061456836513632, 2.1629609335353246, 2.3224125387191665, 4.279018579066936, 0.47497368348151636, 0.38157568056677843, 0.0, 0.852936105461599, 0.0, 0.2712931993250109, 0.09949874371066197, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231986], [1.9032603605392509, 64.92680494218084, 17.696041930330072, 13.035351932341527, 2.9795805073869035, 4.66343221243753, 0.0, 2.5426560915703873, 0.0, 1.6092234151913145, 0.8059776671843962, 1.3013838787997953, 0.6062177826491071, 0.6711184694225009, 0.0, 0.9474175425861617, 0.0, 0.6244997998398402, 0.43301270189221963, 0.6048966853934643, 0.46303347611160944, 0.44721359549995754, 0.0, 0.44034077712608, 0.0, 0.34336569426778807, 0.19595917942265415, 0.2551470164434616, 0.23748684174075815, 0.2179449471770338, 0.0, 0.7794228634059952], [1.3583445807305314, 17.895295471156658, 38.472452482263215, 9.57665912518557, 3.478778521262886, 3.4752122237354075, 0.0, 2.8613807855648985, 0.0, 0.9217374897442332, 0.7196526940128825, 0.6403124237432855, 0.5450688029964661, 0.4255584566190644, 0.0, 0.6560487786742695, 0.0, 0.4013726448077897, 0.31288975694324056, 0.3841874542459713, 0.13999999999999996, 0.25980762113533173, 0.0, 0.48989794855663504, 0.0, 0.23748684174075815, 0.2917190429162965, 0.19595917942265417, 0.0, 0.1959591794226542, 0.0, 0.2764054992217047], [4.996588836396286, 13.234541926338064, 9.61968814463338, 45.89335463877096, 4.271521977000704, 3.2560098279949976, 0.0, 6.672713091389439, 0.0, 1.3961017154921056, 0.899110671719561, 2.6259474480651748, 0.7758221445666532, 0.7163099887618486, 0.0, 1.9123545696339896, 0.0, 0.7399324293474373, 0.35707142142714304, 0.9941830817309262, 0.29171904291629636, 0.4555216789572156, 0.0, 1.1253443917308166, 0.0, 0.46303347611160955, 0.2179449471770339, 0.6403124237432856, 0.2179449471770336, 0.19595917942265415, 0.0, 2.5573423705088842], [0.27129319932501095, 2.8687802285989084, 3.7872945488831466, 4.459540335056968, 3.103723570165356, 1.4398263784220653, 0.0, 1.346811048365732, 0.0, 0.4093897898091748, 0.2999999999999999, 0.3570714214271429, 0.46303347611160917, 0.28618176042508375, 0.0, 0.45552167895721535, 0.0, 0.13999999999999987, 0.23748684174075826, 0.25980762113533207, 0.31921779399024763, 0.13999999999999985, 0.09949874371066197, 0.25980762113533207, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.22158519806160307], [0.48414873747640835, 4.129213000076408, 2.6869313351851773, 3.367729205265769, 1.9748417658131499, 3.337723775269608, 0.0, 2.9444184485225597, 0.0, 0.9329523031752484, 0.4769696007084736, 0.4923413450036472, 0.4555216789572154, 0.35440090293338716, 0.0, 0.49101934788763685, 0.0, 0.13999999999999987, 0.19595917942265423, 0.21794494717703367, 0.21794494717703367, 0.27640549922170493, 0.0, 0.4023679907746142, 0.0, 0.2917190429162964, 0.19595917942265415, 0.27640549922170493, 0.09949874371066199, 0.23748684174075788, 0.0, 0.7889233169326411], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.061838029079765, 2.750908940695784, 2.5206348406701053, 6.395654774923361, 1.4192955999368142, 3.265256498347413, 0.0, 7.142828571371438, 0.0, 0.719096655533871, 0.5706137047074833, 1.2766753698571922, 0.40049968789001583, 0.44766058571198797, 0.0, 1.191637528781298, 0.0, 0.25514701644346166, 0.21794494717703358, 0.5291502622129178, 0.25980762113533173, 0.13999999999999985, 0.0, 0.536190264738181, 0.0, 0.2416609194718914, 0.0, 0.24166091947189133, 0.17058722109231989, 0.13999999999999985, 0.0, 0.9189124006128115], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 1.6172816699635228, 0.9108238029388558, 1.2464349160706307, 0.6539113089708731, 0.5530822723609935, 0.0, 0.8865100112237883, 0.0, 0.30594117081556654, 0.29171904291629636, 0.3128897569432405, 0.09949874371066199, 0.17058722109231972, 0.0, 0.19595917942265415, 0.0, 0.1399999999999999, 0.09949874371066196, 0.09949874371066195, 0.13999999999999987, 0.13999999999999993, 0.0, 0.19595917942265395, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.13999999999999985, 0.09949874371066195, 0.0, 0.27640549922170476], [0.31368774282716233, 0.7680494775728967, 0.8541662601625054, 0.8185352771872451, 0.3316624790355398, 0.4769696007084736, 0.0, 0.6740919818541067, 0.0, 0.09949874371066195, 0.13999999999999985, 0.13999999999999987, 0.09949874371066197, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.2374868417407581, 1.3703649149040564, 0.6307931515164061, 2.6345967433366333, 0.4004996878900159, 0.6177378084592197, 0.0, 1.1144056711987782, 0.0, 0.2764054992217049, 0.21794494717703358, 0.38157568056677843, 0.24166091947189125, 0.21794494717703403, 0.0, 0.27129319932501095, 0.0, 0.13999999999999987, 0.09949874371066199, 0.2764054992217046, 0.09949874371066195, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.2598076211353321], [0.1959591794226542, 0.7361385739111904, 0.6645299090334456, 0.7999999999999992, 0.35369478367654733, 0.305941170815567, 0.0, 0.4160528812542942, 0.0, 0.17058722109232, 0.1399999999999999, 0.17058722109231975, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.13999999999999987, 0.8284926070883195, 0.4690415759823427, 0.6462197768561414, 0.24166091947189125, 0.27640549922170454, 0.0, 0.4394314508543964, 0.0, 0.09949874371066199, 0.09949874371066199, 0.2179449471770337, 0.09949874371066196, 0.0, 0.0, 0.24166091947189147, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.264080693626796, 0.7807688518377259, 1.8723247581549518, 0.43943145085439655, 0.3840572873934309, 0.0, 0.9454628496138819, 0.0, 0.1705872210923199, 0.17058722109231989, 0.32419130154894665, 0.13999999999999987, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.13999999999999993, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.19595917942265417, 0.0, 0.0, 0.0, 0.2179449471770339], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.8388086790204309, 0.3912799509302768, 0.5306599664568634, 0.19595917942265415, 0.2374868417407582, 0.0, 0.19595917942265412, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999996, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.09949874371066199, 0.44721359549995743, 0.3059411708155668, 0.38405728739343103, 0.19595917942265412, 0.17058722109231972, 0.0, 0.195959179422654, 0.0, 0.13999999999999993, 0.0, 0.09949874371066193, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.6666333324999588, 0.4409081537009724, 0.896437393240599, 0.337045990927054, 0.2999999999999999, 0.0, 0.39736632972611075, 0.0, 0.13999999999999999, 0.17058722109231975, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.2598076211353318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.25980762113533207, 0.0, 0.0, 0.0, 0.19595917942265417], [0.09949874371066196, 0.46303347611160967, 0.3059411708155668, 0.34336569426778807, 0.09949874371066199, 0.21794494717703383, 0.0, 0.3241913015489465, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5346961754117942, 0.29999999999999977, 0.34336569426778807, 0.09949874371066196, 0.2179449471770336, 0.0, 0.3370459909270541, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.39293765408777054, 0.39736632972611075, 1.2281693694275226, 0.21794494717703378, 0.38157568056677843, 0.0, 0.37669616403674794, 0.0, 0.1705872210923198, 0.17058722109231994, 0.21794494717703405, 0.09949874371066196, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.1705872210923196, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.09949874371066193, 0.0, 0.1705872210923198, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.2416609194718911], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5102940328869232, 0.3059411708155671, 0.42555845661906444, 0.13999999999999993, 0.13999999999999999, 0.0, 0.2917190429162962, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1959591794226542, 0.23748684174075815, 0.13999999999999987, 0.13999999999999987, 0.13999999999999987, 0.0, 0.22158519806160323, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.41231056256176624, 0.21794494717703378, 0.8724104538575861, 0.13999999999999987, 0.17058722109232005, 0.0, 0.2374868417407581, 0.0, 0.09949874371066196, 0.0, 0.19595917942265406, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.23748684174075815, 0.13999999999999985, 0.19595917942265398, 0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.28618176042508364, 0.09949874371066196, 0.2861817604250835, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2958039891549805, 0.9217374897442338, 0.43081318457076045, 2.104186303538732, 0.2764054992217047, 0.5545268253204716, 0.0, 0.944669254289563, 0.0, 0.32419130154894626, 0.09949874371066199, 0.30594117081556704, 0.0, 0.17058722109231994, 0.0, 0.24166091947189136, 0.0, 0.09949874371066199, 0.0, 0.22158519806160357, 0.09949874371066195, 0.13999999999999987, 0.0, 0.36932370625238836, 0.0, 0.13999999999999987, 0.0, 0.13999999999999996, 0.09949874371066195, 0.09949874371066196, 0.0, 1.3607350954539197]]</t>
         </is>
       </c>
     </row>
@@ -824,62 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008166603440077136</v>
+        <v>0.005490907985882563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2114686286583929</v>
+        <v>0.1449447430167147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01223286578806774</v>
+        <v>0.001069004751418363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2012497918946119</v>
+        <v>31.83746114373204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004998640769922277</v>
+        <v>0.0007832906021194921</v>
       </c>
       <c r="G6" t="n">
-        <v>1.119249319504799</v>
+        <v>1.103230123446526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006247261852017436</v>
+        <v>0.01270641306977132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008334491492319754</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.05468971746706509</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.09686295012650331</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01555136956094892</v>
+        <v>0.01131361346798788</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02461931347823</v>
+        <v>0.001559522995987026</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01014630397293478</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.005622641552414112</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09802308321180589</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03924785071850738</v>
+        <v>0.08352887226016047</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05259982818721184</v>
+        <v>0.02624032192667242</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01533316545680536</v>
+        <v>0.0175243845620692</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5169693052114761</v>
+        <v>1.052535728397714</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04796493635032035</v>
+        <v>0.07564693119366218</v>
       </c>
     </row>
     <row r="7">
@@ -889,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9443873357275245</v>
+        <v>0.9652241292744942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7042727733244819</v>
+        <v>0.7509665820478594</v>
       </c>
       <c r="D7" t="n">
-        <v>0.975520107290359</v>
+        <v>0.9654006065113842</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6977208184045088</v>
+        <v>0.5649451837914919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9750392152544938</v>
+        <v>0.9448808307910355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7437718583920961</v>
+        <v>0.7795718169096016</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9143142212609049</v>
+        <v>0.9045544699998189</v>
       </c>
       <c r="I7" t="n">
-        <v>0.945116159081456</v>
+        <v>0.6373718093046444</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8209032039600623</v>
+        <v>0.8217372552202308</v>
       </c>
       <c r="K7" t="n">
-        <v>0.936383847281631</v>
+        <v>0.9543545785030375</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9439483735458901</v>
+        <v>0.9662623101640202</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9313647581239531</v>
+        <v>0.9519784684704189</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8063596752646294</v>
+        <v>0.7437738016275826</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9616978528393783</v>
+        <v>0.8478410897305081</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9345658114175592</v>
+        <v>0.8884055100311445</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9737426473448642</v>
+        <v>0.9601436932715667</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9109720294956734</v>
+        <v>0.6901674957732604</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9711308705177081</v>
+        <v>0.943530533483506</v>
       </c>
     </row>
     <row r="8">
@@ -950,62 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06234960428046782</v>
+        <v>0.009925612118048602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04343016927816678</v>
+        <v>0.1793944857832376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02212752409451375</v>
+        <v>0.01753058225127886</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02177884152039444</v>
+        <v>0.0242255226774183</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00662227450420081</v>
+        <v>0.03760110292828073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6456402591972652</v>
+        <v>0.8014978330203442</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1321863013655452</v>
+        <v>0.004808634592198071</v>
       </c>
       <c r="I8" t="n">
-        <v>1.560682417177935</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1851938279973884</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.444064941403759</v>
       </c>
       <c r="K8" t="n">
-        <v>35.2496310635003</v>
+        <v>0.02087374492635234</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4113293511291782</v>
+        <v>0.3335860468939648</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1857309193241842</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1632357108677244</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.725123533300741</v>
       </c>
       <c r="O8" t="n">
-        <v>3.226277246608347</v>
+        <v>1.673929989101238</v>
       </c>
       <c r="P8" t="n">
-        <v>8.023164292121558</v>
+        <v>1.061926349554907</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.110601295237937</v>
+        <v>0.374304428430286</v>
       </c>
       <c r="R8" t="n">
-        <v>10.24531850295356</v>
+        <v>0.919090473817278</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5551102559992913</v>
+        <v>0.357680907085149</v>
       </c>
     </row>
     <row r="9">
@@ -1015,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9365954905804486</v>
+        <v>0.9445014435911182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8083163360315232</v>
+        <v>0.7620125063244823</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9542228583084734</v>
+        <v>0.9510106057432725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8492791782949972</v>
+        <v>0.8251437890471328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.955759805393316</v>
+        <v>0.9290820895856524</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7538768985763108</v>
+        <v>0.7651689746380483</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8625993653269548</v>
+        <v>0.7591273371332532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9407111477835993</v>
+        <v>0.6327484685941821</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1924282236641924</v>
+        <v>0.1783049859972357</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9256186941417622</v>
+        <v>0.9559215437018612</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9318536850850258</v>
+        <v>0.9388590681220473</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9195064103523813</v>
+        <v>0.9291548865939044</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6689364654140837</v>
+        <v>0.3789161237453736</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9316371249746235</v>
+        <v>0.8127383557633147</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9196949290558274</v>
+        <v>0.8639230078106231</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9519029477741577</v>
+        <v>0.9517156971075114</v>
       </c>
       <c r="R9" t="n">
-        <v>0.892787968893607</v>
+        <v>0.5678842045156426</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9626618227288417</v>
+        <v>0.9389485396947229</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/a3/a3_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a3/a3_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.89901618929017</v>
+        <v>72.31540473225405</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41414694894147</v>
+        <v>3.414856787048568</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>5.996911581569116</v>
+        <v>5.998493150684931</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008405977584059776</v>
+        <v>0.008393524283935243</v>
       </c>
       <c r="H2" t="n">
-        <v>2.386525529265255</v>
+        <v>2.377085927770859</v>
       </c>
       <c r="I2" t="n">
-        <v>5.953922789539228</v>
+        <v>125.0373599003736</v>
       </c>
       <c r="J2" t="n">
-        <v>338.9626400996264</v>
+        <v>338.9302615193026</v>
       </c>
       <c r="K2" t="n">
-        <v>5.637185554171856</v>
+        <v>5.63906600249066</v>
       </c>
       <c r="L2" t="n">
-        <v>3.024445828144458</v>
+        <v>3.024271481942714</v>
       </c>
       <c r="M2" t="n">
-        <v>4.828007471980075</v>
+        <v>4.793549190535492</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[81.0747198007472, 26.613947696139476, 119.90286425902865, 47.342465753424655, 13.166874221668742, 23.0, 0.21419676214196762, 14.251556662515567, 3.25653798256538, 4.265255292652553, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[80.55790784557908, 26.997509339975093, 121.60647571606475, 47.21793275217933, 12.586550435865504, 22.266500622665006, 0.1930261519302615, 14.129514321295144, 3.2391033623910337, 4.2465753424657535, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[62.07845579078456, 1.1805728518057286, 59.19053549190536, 1.0099626400996264, 65.67123287671232, 13.188044831880449, 1.5080946450809465, 53.510585305105856, 1.4346201743462017, 57.404732254047325, 0.8206724782067247, 21.96513075965131]</t>
+          <t>[30.32129514321295, 24.641344956413448, 32.20921544209215, 26.281444582814444, 30.42714819427148, 28.266500622665006, 26.044831880448317, 32.61519302615193, 22.945205479452056, 30.73225404732254, 25.12453300124533, 29.32129514321295]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.716064757160648, 71.27397260273973, 149.0049813200498, 24.813200498132005, 40.68866749688667, 3.207970112079701, 9.638854296388542, 2.261519302615193, 8.61892901618929, 1.1145703611457036, 2.459526774595268, 0.6363636363636364, 3.4408468244084682, 0.5255292652552926, 1.7073474470734744, 0.4246575342465753, 4.729763387297634, 0.18929016189290163, 0.5193026151930261, 0.10834371108343711, 0.298879202988792, 0.048567870485678705, 0.10834371108343711, 0.0273972602739726, 0.1930261519302615, 0.017434620174346202, 0.047322540473225407, 0.009962640099626401, 0.08343711083437111, 0.0136986301369863, 0.028642590286425903, 0.0062266500622665]</t>
+          <t>[7.711083437110834, 78.31257783312577, 146.76463262764634, 24.107098381070983, 40.595267745952675, 3.2104607721046077, 9.61892901618929, 2.2590286425902866, 8.61892901618929, 1.1133250311332503, 2.4632627646326277, 0.6326276463262764, 3.4420921544209215, 0.5255292652552926, 1.709838107098381, 0.42341220423412207, 4.723536737235367, 0.18929016189290163, 0.5180572851805728, 0.10834371108343711, 0.298879202988792, 0.048567870485678705, 0.10834371108343711, 0.0273972602739726, 0.1930261519302615, 0.017434620174346202, 0.047322540473225407, 0.009962640099626401, 0.08343711083437111, 0.0136986301369863, 0.028642590286425903, 0.0062266500622665]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.2465753424657535, 113.51432129514322, 59.48692403486924, 77.27272727272727, 13.86052303860523, 17.982565379825655, 0.0012453300124533001, 21.210460772104607, 0.0049813200498132005, 4.956413449564135, 2.5180572851805727, 4.818181818181818, 1.7970112079701122, 1.891656288916563, 0.0012453300124533001, 4.292652552926525, 0.0, 1.2951432129514322, 0.6537982565379825, 1.4831880448318804, 0.6425902864259029, 0.7571606475716065, 0.0012453300124533001, 1.6338729763387299, 0.0, 0.5591531755915318, 0.2901618929016189, 0.6264009962640099, 0.24906600249066002, 0.32254047322540474, 0.0, 2.592777085927771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[7.080946450809464, 120.11830635118307, 50.06973848069738, 77.23910336239103, 13.863013698630137, 17.980074719800747, 0.0062266500622665, 21.201743462017436, 0.0012453300124533001, 4.952677459526774, 2.514321295143213, 4.816936488169365, 1.800747198007472, 1.8891656288916563, 0.0037359900373599006, 4.287671232876712, 0.0012453300124533001, 1.2951432129514322, 0.6562889165628891, 1.481942714819427, 0.6450809464508095, 0.7571606475716065, 0.0, 1.6338729763387299, 0.0, 0.5591531755915318, 0.2901618929016189, 0.6288916562889165, 0.24782067247820672, 0.32254047322540474, 0.0, 2.585305105853051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[16.16936488169365, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.242839352428393, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.2764632627646326, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 14.14694894146949, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19551681195516812, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.816936488169365, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 16.001245330012452, 4.442092154420922, 0.3586550435865504, 11.642590286425904, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3150684931506849], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.0311332503113326, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.3001245330012453, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.72851805728518, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.38729763387297633, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.49439601494396, 0.0448318804483188, 5.4707347447073476], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.1382316313823163, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.07721046077210461, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.774595267745953, 0.026151930261519303, 3.8729763387297633]]</t>
+          <t>[[7.281444582814446, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 6.006226650062266, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 8.01494396014944, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.403486924034869, 1.1207970112079702, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.2926525529265256, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.185554171855542, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.968866749688668, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.408468244084682, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.6899128268991283, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.587795765877958, 0.8655043586550436, 5.74346201743462, 1.9825653798256537, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.403486924034869, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 7.127023661270236, 0.9265255292652553, 5.058530510585305], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.009962640099626401, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.405977584059776, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.072229140722292, 1.049813200498132, 7.47945205479452]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9315068493150684, 0.6861768368617683, 1.7957658779576589, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3300124533001245, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.028642590286425903], [0.6587795765877957, 60.255292652552924, 16.89165628891656, 16.62640099626401, 3.468244084682441, 5.734744707347447, 0.0, 3.1930261519302614, 0.0, 1.5828144458281446, 0.6687422166874222, 0.8443337484433375, 0.46201743462017436, 0.6239103362391034, 0.0, 0.75093399750934, 0.0, 0.30884184308841844, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.0958904109589041, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.25529265255292655], [0.21544209215442092, 16.188044831880447, 20.933997509339974, 9.975093399750934, 2.6077210460772107, 2.506849315068493, 0.0, 2.668742216687422, 0.0, 0.7297633872976339, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5566625155666252, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.21793275217932753], [2.506849315068493, 15.688667496886675, 8.938978829389788, 27.669987546699875, 3.2391033623910337, 3.5367372353673723, 0.0, 6.290161892901619, 0.0, 1.2627646326276463, 0.6450809464508095, 1.7347447073474471, 0.5442092154420921, 0.5242839352428393, 0.0, 1.389788293897883, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.0759651307596513, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.7285180572851806], [0.1917808219178082, 2.987546699875467, 2.24906600249066, 3.332503113325031, 1.6425902864259028, 0.9240348692403487, 0.0, 0.925280199252802, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.09090909090909091, 0.0, 0.23536737235367372, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.019925280199252802, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.11581569115815692], [0.21793275217932753, 4.877957658779577, 2.503113325031133, 3.569115815691158, 0.9327521793275217, 2.427148194271482, 0.0, 1.174346201743462, 0.0, 0.33374844333748444, 0.1295143212951432, 0.31008717310087175, 0.1519302615193026, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1307596513075965, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.1581569115815691], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 3.6587795765877957, 2.2428393524283936, 5.268991282689913, 0.775840597758406, 1.029887920298879, 0.0, 4.2278953922789535, 0.0, 0.3001245330012453, 0.16064757160647572, 0.613947696139477, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6724782067247821, 0.0, 0.11207970112079702, 0.08841843088418432, 0.2627646326276463, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33499377334993774, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.6039850560398505], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.937733499377335, 0.7696139476961394, 1.2216687422166874, 0.14072229140722292, 0.2266500622665006, 0.0, 0.261519302615193, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.07721046077210461], [0.0037359900373599006, 0.772104607721046, 0.6836861768368617, 0.5877957658779577, 0.09713574097135741, 0.09090909090909091, 0.0, 0.12204234122042341, 0.0, 0.012453300124533, 0.009962640099626401, 0.031133250311332503, 0.012453300124533, 0.014943960149439602, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0186799501867995], [0.1519302615193026, 1.2179327521793275, 0.6998754669987547, 1.6774595267745953, 0.12702366127023662, 0.18306351183063513, 0.0, 0.298879202988792, 0.0, 0.06102117061021171, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0062266500622665, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.06351183063511831], [0.007471980074719801, 0.5877957658779577, 0.3150684931506849, 0.42839352428393523, 0.06102117061021171, 0.1432129514321295, 0.0, 0.09713574097135741, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0186799501867995, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0161892901618929], [0.034869240348692404, 0.6438356164383562, 0.3437110834371108, 0.45703611457036114, 0.049813200498132, 0.1519302615193026, 0.0, 0.0821917808219178, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0224159402241594], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9165628891656289, 0.6376089663760897, 1.4595267745952678, 0.14694894146948942, 0.20049813200498132, 0.0, 0.5579078455790785, 0.0, 0.029887920298879204, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.062266500622665005, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.012453300124533, 0.0024906600249066002, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.05603985056039851], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18679950186799502, 0.33872976338729766, 0.058530510585305104, 0.0784557907845579, 0.0, 0.0684931506849315, 0.0, 0.0273972602739726, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665], [0.0012453300124533001, 0.1930261519302615, 0.136986301369863, 0.20049813200498132, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0049813200498132005], [0.05105853051058531, 0.32129514321295144, 0.28268991282689915, 0.46077210460772106, 0.05603985056039851, 0.07098381070983811, 0.0, 0.1095890410958904, 0.0, 0.0136986301369863, 0.012453300124533, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.009962640099626401, 0.0, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0012453300124533001, 0.22042341220423411, 0.09339975093399751, 0.16811955168119552, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0136986301369863, 0.22789539227895392, 0.1295143212951432, 0.16064757160647572, 0.031133250311332503, 0.047322540473225407, 0.0, 0.0547945205479452, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33623910336239105, 0.20672478206724781, 0.5529265255292652, 0.062266500622665005, 0.08094645080946451, 0.0, 0.18181818181818182, 0.0, 0.026151930261519303, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.1307596513075965, 0.021170610211706103, 0.05603985056039851, 0.0, 0.033623910336239106, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.0647571606475716, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.04234122042341221, 0.11955168119551682, 0.0647571606475716, 0.21419676214196762, 0.0323785803237858, 0.039850560398505604, 0.0, 0.029887920298879204, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006], [0.0, 0.053549190535491904, 0.0136986301369863, 0.0722291407222914, 0.0186799501867995, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0037359900373599006, 0.053549190535491904, 0.04234122042341221, 0.052303860523038606, 0.007471980074719801, 0.029887920298879204, 0.0, 0.039850560398505604, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.043586550435865505, 0.32004981320049813, 0.16189290161892902, 0.4931506849315068, 0.06973848069738481, 0.12702366127023662, 0.0012453300124533001, 0.3163138231631382, 0.0049813200498132005, 0.043586550435865505, 0.048567870485678705, 0.11207970112079702, 0.0273972602739726, 0.031133250311332503, 0.0012453300124533001, 0.1432129514321295, 0.0, 0.023661270236612703, 0.017434620174346202, 0.0448318804483188, 0.009962640099626401, 0.017434620174346202, 0.0012453300124533001, 0.05603985056039851, 0.0, 0.009962640099626401, 0.007471980074719801, 0.0224159402241594, 0.0037359900373599006, 0.0112079701120797, 0.0, 0.1780821917808219]]</t>
+          <t>[[0.047322540473225407, 2.8019925280199254, 1.2665006226650062, 2.032378580323786, 0.1780821917808219, 0.18057285180572852, 0.0, 0.34744707347447074, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.029887920298879204, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.024906600249066], [3.506849315068493, 64.27023661270236, 15.65255292652553, 16.900373599003736, 3.800747198007472, 5.839352428393524, 0.0, 3.2752179327521795, 0.0, 1.6338729763387299, 0.6874221668742216, 0.8617683686176837, 0.4657534246575342, 0.6301369863013698, 0.0, 0.7658779576587795, 0.0, 0.3150684931506849, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.27895392278953923, 0.0, 0.0958904109589041, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.27023661270236615], [0.21170610211706103, 14.950186799501868, 14.107098381070983, 9.48318804483188, 2.2179327521793275, 2.3698630136986303, 0.0, 2.569115815691158, 0.0, 0.6699875466998755, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5367372353673724, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.19676214196762143], [2.4993773349937736, 16.246575342465754, 8.392278953922789, 27.627646326276462, 3.2415940224159403, 3.5367372353673723, 0.0024906600249066002, 6.287671232876712, 0.0, 1.2590286425902864, 0.6450809464508095, 1.7334993773349938, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.389788293897883, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.7422166874221668], [0.1917808219178082, 3.352428393524284, 1.887920298879203, 3.3349937733499377, 1.6376089663760898, 0.925280199252802, 0.0, 0.925280199252802, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.09090909090909091, 0.0024906600249066002, 0.2328767123287671, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.019925280199252802, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.11581569115815692], [0.2191780821917808, 5.0485678704856785, 2.3337484433374844, 3.5666251556662516, 0.9315068493150684, 2.4259028642590286, 0.0012453300124533001, 1.1718555417185554, 0.0, 0.33374844333748444, 0.1295143212951432, 0.31008717310087175, 0.1519302615193026, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1307596513075965, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.16064757160647572], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 3.924034869240349, 1.9825653798256537, 5.262764632627646, 0.775840597758406, 1.0273972602739727, 0.0, 4.225404732254047, 0.0, 0.3001245330012453, 0.16064757160647572, 0.6114570361145704, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6724782067247821, 0.0, 0.11083437110834371, 0.08841843088418432, 0.2627646326276463, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33499377334993774, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.6027397260273972], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.070983810709838, 0.6338729763387297, 1.2204234122042341, 0.14072229140722292, 0.2266500622665006, 0.0, 0.261519302615193, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0784557907845579], [0.0062266500622665, 0.8891656288916563, 0.5628891656288917, 0.5877957658779577, 0.09713574097135741, 0.09090909090909091, 0.0, 0.12204234122042341, 0.0, 0.012453300124533, 0.009962640099626401, 0.031133250311332503, 0.012453300124533, 0.014943960149439602, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0161892901618929], [0.1506849315068493, 1.2963885429638855, 0.6239103362391034, 1.676214196762142, 0.12702366127023662, 0.1843088418430884, 0.0, 0.29763387297633875, 0.0, 0.06102117061021171, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0062266500622665, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.06351183063511831], [0.007471980074719801, 0.635118306351183, 0.26899128268991285, 0.42839352428393523, 0.06102117061021171, 0.1432129514321295, 0.0, 0.09713574097135741, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0186799501867995, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0161892901618929], [0.034869240348692404, 0.6961394769613948, 0.2901618929016189, 0.45703611457036114, 0.049813200498132, 0.1519302615193026, 0.0, 0.0821917808219178, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0224159402241594], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9713574097135741, 0.5790784557907845, 1.4582814445828145, 0.14694894146948942, 0.20049813200498132, 0.0, 0.5579078455790785, 0.0, 0.029887920298879204, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.062266500622665005, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.012453300124533, 0.0024906600249066002, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.05603985056039851], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.16064757160647572, 0.33872976338729766, 0.058530510585305104, 0.0784557907845579, 0.0012453300124533001, 0.06724782067247821, 0.0, 0.0273972602739726, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.0012453300124533001, 0.21046077210460773, 0.12204234122042341, 0.20049813200498132, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.049813200498132, 0.3312577833125778, 0.2714819427148194, 0.46077210460772106, 0.05603985056039851, 0.0722291407222914, 0.0, 0.10834371108343711, 0.0, 0.0136986301369863, 0.012453300124533, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.009962640099626401, 0.0, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0012453300124533001, 0.22914072229140722, 0.09090909090909091, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.24159402241594022, 0.11581569115815692, 0.16064757160647572, 0.031133250311332503, 0.047322540473225407, 0.0, 0.0547945205479452, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34744707347447074, 0.19551681195516812, 0.5541718555417185, 0.062266500622665005, 0.08094645080946451, 0.0, 0.18181818181818182, 0.0, 0.026151930261519303, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.1307596513075965, 0.021170610211706103, 0.05603985056039851, 0.0, 0.033623910336239106, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.0660024906600249, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 0.12453300124533001, 0.062266500622665005, 0.21419676214196762, 0.0323785803237858, 0.039850560398505604, 0.0, 0.029887920298879204, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006], [0.0, 0.053549190535491904, 0.0136986301369863, 0.0722291407222914, 0.0186799501867995, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0037359900373599006, 0.05105853051058531, 0.0448318804483188, 0.052303860523038606, 0.007471980074719801, 0.029887920298879204, 0.0, 0.039850560398505604, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.038605230386052306, 0.31880448318804483, 0.16313823163138233, 0.49813200498132004, 0.07098381070983811, 0.12702366127023662, 0.0, 0.3175591531755915, 0.0, 0.043586550435865505, 0.0448318804483188, 0.11457036114570361, 0.0273972602739726, 0.029887920298879204, 0.0, 0.14072229140722292, 0.0012453300124533001, 0.023661270236612703, 0.021170610211706103, 0.0460772104607721, 0.0112079701120797, 0.017434620174346202, 0.0, 0.058530510585305104, 0.0, 0.009962640099626401, 0.008717310087173101, 0.024906600249066, 0.0037359900373599006, 0.0112079701120797, 0.0, 0.16936488169364883]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.589628813979775</v>
+        <v>5.031653942699256</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5969575108943947</v>
+        <v>0.5978659209557251</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.391660332695042</v>
+        <v>1.394164263426338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02079849511115319</v>
+        <v>0.0208005306453014</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4285598203108515</v>
+        <v>0.4283159136451429</v>
       </c>
       <c r="I3" t="n">
-        <v>15.25553592201897</v>
+        <v>106.0107191600952</v>
       </c>
       <c r="J3" t="n">
-        <v>81.61224787213895</v>
+        <v>81.59223474337057</v>
       </c>
       <c r="K3" t="n">
-        <v>1.550233357017902</v>
+        <v>1.553964599649465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.890177776466854</v>
+        <v>0.8910370417298406</v>
       </c>
       <c r="M3" t="n">
-        <v>1.646334322763848</v>
+        <v>1.672116199257514</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[44.189497926979804, 25.799599458835893, 38.07632145843377, 24.63620289428403, 9.276413860697431, 12.652457565265603, 0.8921674929666127, 10.1943251834253, 4.666612977517225, 5.336556020994414, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.53381125966603, 26.16867393783276, 38.62956955807219, 24.973930661050826, 9.150787126635349, 12.126818917977902, 0.8344101401624855, 10.108904531285607, 4.695204643369049, 5.303160325912351, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.92002031027889, 4.227764621434892, 24.424480096457316, 3.7476302680828053, 22.754228747142264, 16.499617159617078, 5.322793087988967, 25.796759525637036, 4.525466552825089, 27.491229485998787, 3.265765828546395, 20.06940087256966]</t>
+          <t>[33.11098935784556, 31.79238196279947, 33.19141158486526, 33.89409911143388, 33.05428736242567, 32.79440785612016, 32.00168087997243, 33.92898037660591, 30.863730321628996, 33.15237913583798, 31.2262372258095, 33.20439560867364]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.686009709983814, 72.7775892149464, 85.96102377856744, 32.42629308572125, 39.282705704479994, 5.070151585503006, 10.195673865006906, 4.113744078606814, 10.815525041185259, 2.53087030812154, 4.409238944529501, 1.7026161767564227, 5.296905770346, 1.3777391600385327, 2.971057283593464, 1.077444384652782, 7.303964246720032, 0.8710280033131858, 1.6134748627057829, 0.5729194827097635, 1.1160936319909365, 0.3477482324748241, 0.5772504254812084, 0.3183809842792927, 0.7659316163405778, 0.14007610152566805, 0.2871289222805381, 0.09931458050997263, 0.3410658584034613, 0.1448549541578633, 0.20068754927160506, 0.07866307196689296]</t>
+          <t>[19.213585225879868, 79.93961406332063, 86.81444488135638, 32.28004001293829, 39.33556916160032, 5.11480065256313, 10.185049495417354, 4.113598934291709, 10.81667640806336, 2.531172386763788, 4.414070428515079, 1.7014480521176927, 5.298329970818815, 1.3786427576165583, 2.972139682970127, 1.0773565791813682, 7.3152313128315845, 0.8710280033131858, 1.6134892804071148, 0.5729194827097635, 1.1160936319909365, 0.3477482324748241, 0.5772504254812084, 0.3183809842792927, 0.7659316163405778, 0.14007610152566805, 0.2871289222805381, 0.09931458050997263, 0.3410658584034613, 0.1448549541578633, 0.20068754927160506, 0.07866307196689296]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.311534491256449, 91.75435955455536, 68.25529518597438, 60.743681648245634, 16.888852778379242, 17.05619442499294, 0.03526725344584421, 25.89814881880533, 0.08629696706884245, 5.513424629630707, 3.9313042856673794, 6.349067115112054, 2.9112896636161754, 2.983886592922362, 0.03526725344584419, 6.286658534495317, 0.0, 2.269800397885193, 1.395489940306396, 2.61629224363721, 1.629592241781981, 1.7076657895100733, 0.03526725344584421, 3.075302059710585, 0.0, 1.318486350606827, 0.9608735900119527, 1.6408242540644988, 1.071646816123633, 1.022451585467955, 0.0, 5.49785853329974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[12.861448591676377, 94.06069528305407, 57.94406301908337, 60.76424946171567, 16.875300154402666, 17.055753611382887, 0.10568443093039571, 25.901415684181696, 0.035267253445844, 5.511925454956629, 3.932269870270229, 6.349521673648789, 2.909622364836062, 2.983377723539086, 0.07882063461243541, 6.285897947606841, 0.03526725344584406, 2.269800397885193, 1.3961054801822617, 2.6215146272104737, 1.6331894205389959, 1.7076657895100733, 0.0, 3.0781353736693444, 0.0, 1.318486350606827, 0.9582780055561356, 1.6413893643943163, 1.0701914297730437, 1.022451585467955, 0.0, 5.4997913014008315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.497678546121529, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374591568516089, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5327983978986317, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.42256329880656, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0947081248483568, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.70901819465485, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.402337984671936, 6.765605758296028, 1.5957241072502508, 9.436714778906712, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.623603861951986], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.240132601165399, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5537966146617601, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.725416093404476, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8058126832276957, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.685130491426762, 0.4151340798331694, 6.933060317277985], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.8013502684208056, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5319352475974184, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.2594852919602175, 0.4091889883963065, 7.109624051601174]]</t>
+          <t>[[12.145157418602903, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.466827398793058, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 12.067670377266102, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.228016149580595, 4.423316840097056, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.097467460695091, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.657169661566593, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.986512847675964, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.875444406231875, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286946087764437, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.329083193442706, 3.4488748631383483, 9.883830410375344, 5.522258358586261, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.866635801599193, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.64154558230538, 3.6606801398387883, 9.029510844153519], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.13166383701150342, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.543283174009133, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.18446370745735, 3.720296636491089, 12.386089240498999]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.452800923536526, 2.536143845995947, 6.358577972166925, 0.6876973477766123, 0.7447323369277237, 0.0, 1.860498031810386, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.2675982099834029, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.2503825725900313], [2.742249488833973, 70.73021256945191, 22.66523866425233, 17.54155075421962, 5.4016671270203735, 7.714592972773921, 0.0, 4.533132618900159, 0.0, 3.051497160124377, 1.8200096580008809, 1.7727499089818197, 1.3220947998237327, 1.7561210940781435, 0.0, 1.767348380557395, 0.0, 1.0700305642182504, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.9949867279161847, 0.0, 0.5010778399499204, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 1.0060000607975048], [2.509193188726742, 22.25602763668445, 38.20289775783876, 15.830732201240485, 5.3452918179992, 4.876138603664875, 0.0, 5.581713318833864, 0.0, 1.9135613082685867, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.7897493704130143, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.9835899936848558], [7.87785903180499, 16.74317640881845, 14.794903785955011, 42.451694718034695, 5.7364374843392065, 4.990360103448232, 0.0, 10.205448223780333, 0.0, 2.673041621445877, 1.8532217813936331, 3.8522689247797044, 1.5873019523659646, 1.4814235619636973, 0.0, 3.5078627681981467, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.4355985661866207, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2298822312491415], [1.1545921920934599, 4.521413761175739, 4.875816092179794, 5.81900327284173, 6.040793599588729, 2.38048472073095, 0.0, 2.377121340600691, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.47915923195599625, 0.0, 0.9972037908719813, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.19862916101994346, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.5307823834991117], [1.3189214849254736, 7.098492275898042, 4.990494353644506, 5.438540807730167, 2.4373516796036783, 5.482507921794044, 0.0, 2.8093403035526814, 0.0, 1.0857135301134615, 0.7219477861724435, 1.1756073621155918, 0.7397826311412653, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.6226027366123915, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.6572841895933184], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.061008461837688044, 4.498582259577258, 4.382639578105533, 9.397006616662472, 2.036910740405501, 2.426832847792426, 0.0, 12.667571444652252, 0.0, 1.0960531408672098, 0.827813864855967, 2.516279198239142, 0.7401934026317223, 0.6207892044261079, 0.0, 2.964896695318166, 0.0, 0.5861761886654182, 0.5171074490201772, 1.142170631550324, 0.6723905666797703, 0.6022249069870969, 0.0, 1.4681706728082267, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 2.187951625059379], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.288700355930052, 2.086061964791826, 2.562917605952422, 0.6555618744228082, 0.9234388654998725, 0.0, 1.2491994679187797, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.5681598965388478], [0.10580176033753269, 1.8060694486415125, 1.892390309129679, 1.9529204743691084, 0.5562096106810701, 0.5672283406972923, 0.0, 0.7128423894381034, 0.0, 0.1573261439337848, 0.19303016908204845, 0.48156768273402656, 0.13145164696706657, 0.17223413817803668, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.03526725344584399, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.18911803145698197], [0.9252676285414514, 2.254333523865254, 1.8828286090459763, 4.129814751865403, 0.6102523685844544, 0.7585869276001889, 0.0, 1.2051513504278002, 0.0, 0.4205345033919183, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.10568443093039473, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.2136094935250671, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.42605213205066145], [0.09953295742310325, 1.4440845965263878, 1.1043261872344543, 1.2882419830072576, 0.42348545260492076, 1.1016406369062917, 0.0, 0.6549204625063324, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.2657722148209997, 0.0862969670688439, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.15296789571889574], [0.3784738003113154, 1.7623914560082512, 1.1517141596630311, 1.3890103028274345, 0.3310564093578771, 0.8450754776983171, 0.0, 0.5120896345906986, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.049844324025377806, 0.0, 0.07882063461243624, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.2045452176103844], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8704657798504827, 1.7755584984979746, 3.591784353848485, 0.8561985728484334, 0.884852325133488, 0.0, 3.0410346942172697, 0.0, 0.25271302472919566, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5292051830240878, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14920072231784745, 0.07053450689168789, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.5095332842678908], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7334560326498049, 1.0714601159274395, 0.3837435482682072, 0.4708928552986611, 0.0, 0.3755160446189851, 0.0, 0.32611005994980435, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689243], [0.035267253445844256, 0.6888915297703234, 0.6905621609916225, 0.764009708905338, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.03526725344584384, 0.03526725344584419, 0.0, 0.07040246089714877], [0.5408661936315918, 1.0210156915566062, 1.060339820636888, 1.4624883353815656, 0.3501968966266702, 0.4477060985422264, 0.0, 0.8080819690611425, 0.0, 0.17591360903495365, 0.17950904055170688, 0.27002706350574374, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.035267253445844166, 0.03526725344584394, 0.16522108242054565, 0.0, 0.07882063461243619, 0.0, 0.06100846183768793, 0.0, 0.0, 0.0, 0.07053450689168847, 0.0, 0.035267253445843846, 0.0, 0.09295869293410508], [0.03526725344584419, 0.994370866289755, 0.5281550145574505, 0.7095715127174085, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.04984432402537778], [0.2565440277854765, 0.869645254261883, 0.6937997157399078, 0.713049039743696, 0.2738537045298144, 0.31206886765491826, 0.0, 0.37610615783645407, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378375], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0803437037221253, 0.8813013177531895, 1.8113041415597653, 0.4068018738819371, 0.5464005171597189, 0.0, 1.1679907631196826, 0.0, 0.21305700411948192, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.304879576549922, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.09295869293410507], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.6084402579242185, 0.21936197425475323, 0.396871650229194, 0.0, 0.27355906750344045, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.049844324025378264, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.06100846183768806], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4897868848649545, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0352672534458439, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413], [0.4001251337669047, 0.6198491748065699, 0.4273242469283259, 1.0826137350261194, 0.2848568208032502, 0.36113282065740643, 0.0, 0.24265727439737708, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.061008461837688405], [0.0, 0.4156007891581909, 0.12649757979606965, 0.5688146222788149, 0.1891180314569826, 0.16505203903612162, 0.0, 0.3465733511849521, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714862], [0.07882063461243573, 0.36451811415950947, 0.30060213235205285, 0.30724590663789775, 0.11134392501747144, 0.226738996961806, 0.0, 0.3779817644814471, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.06100846183768818], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3375143015921877, 1.116360390087913, 0.7961253638753412, 1.7836647488242299, 0.5445240190512478, 0.7102203423466364, 0.03526725344584421, 1.3601957082632739, 0.08629696706884245, 0.31061436477554316, 0.3405106652361291, 0.5711111135181711, 0.2480239721320222, 0.2550161002467814, 0.03526725344584419, 0.6920024461921163, 0.0, 0.20133562700562752, 0.17199986720418067, 0.2918273519860693, 0.11114875584899042, 0.15685226892985182, 0.03526725344584421, 0.3430110003442121, 0.0, 0.11114875584898999, 0.11134392501746998, 0.1853827553268103, 0.06100846183768915, 0.1450689202333601, 0.0, 0.968709870225156]]</t>
+          <t>[[0.6032309680582033, 6.974916525516791, 3.725809291636635, 6.555744123844732, 0.9158451897975939, 0.8431224481801997, 0.0, 1.872013941557469, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.2851289060094094, 0.0, 0.11134392501747176, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.22734010158146237], [8.412372457996879, 72.07487422959377, 20.58382195704375, 17.377646635840815, 5.639007485300842, 7.725221624315086, 0.0, 4.552198548775545, 0.0, 3.0675984447099554, 1.8507657073408263, 1.790961216317061, 1.313692721623636, 1.7627495663135448, 0.0, 1.7799159928263837, 0.0, 1.07228627106496, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 1.0052875906149936, 0.0, 0.5010778399499204, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 1.0254292634796816], [2.5072770707759893, 20.353966309983008, 29.033471248307777, 15.615895525848911, 4.658828677151506, 4.695875443724872, 0.0, 5.485962395289186, 0.0, 1.8171545572065249, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.777704121796813, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.9113314480367277], [7.8735926761373936, 16.79297346395613, 14.652446449681765, 42.46076008813565, 5.74501037065801, 4.990360103448232, 0.07053450689168837, 10.206006823152201, 0.0, 2.6722414326549044, 1.8545652566252837, 3.8526678610100804, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.5078627681981467, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 2.249017733367533], [1.1545921920934599, 4.908028693841098, 4.34443472841557, 5.820144374642269, 6.025634757695215, 2.381831607852115, 0.0, 2.377121340600691, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.47915923195599625, 0.07053450689168829, 0.9902715169102074, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.19862916101994346, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.5307823834991117], [1.3201308746463474, 7.148757902113311, 4.880203155181922, 5.436510669697369, 2.437572460004789, 5.482264080886846, 0.03526725344584389, 2.8094937643654894, 0.0, 1.0857135301134615, 0.7219477861724435, 1.1756073621155918, 0.7397826311412653, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.6226027366123915, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.6604618023452291], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.061008461837688044, 4.611476037194969, 4.121407211606545, 9.399634121712493, 2.036910740405501, 2.426862243522195, 0.0, 12.668009234365497, 0.0, 1.0960531408672098, 0.827813864855967, 2.514410421937351, 0.7407881980057558, 0.6207892044261079, 0.0, 2.964896695318166, 0.0, 0.5853501479714571, 0.5171074490201772, 1.142170631550324, 0.6723905666797703, 0.6022249069870969, 0.0, 1.4681706728082267, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 2.1880104556823405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3256155008155575, 1.8919632923713694, 2.562782057748297, 0.6555618744228082, 0.9234388654998725, 0.0, 1.2491994679187797, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.5690844772021891], [0.1270846921973476, 1.9209585808144582, 1.6944617490808283, 1.9529204743691084, 0.5562096106810701, 0.5672283406972923, 0.0, 0.7128423894381034, 0.0, 0.1573261439337848, 0.19303016908204845, 0.48156768273402656, 0.13145164696706657, 0.17223413817803668, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.03526725344584399, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.18265217551481114], [0.9166830150313403, 2.2922957019164083, 1.8105890696148943, 4.129868076007786, 0.6102523685844544, 0.7656399917847853, 0.0, 1.204942862986383, 0.0, 0.4205345033919183, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.10568443093039473, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.2136094935250671, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.42605213205066145], [0.09953295742310325, 1.4888918977344632, 0.9829796133302519, 1.2882419830072576, 0.42348545260492076, 1.1016406369062917, 0.0, 0.6549204625063324, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.2657722148209997, 0.0862969670688439, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.15296789571889574], [0.3784738003113154, 1.7951983945206216, 1.0417153918424131, 1.3890103028274345, 0.3310564093578771, 0.8450754776983171, 0.0, 0.5120896345906986, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.049844324025377806, 0.0, 0.07882063461243624, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.2045452176103844], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9102988950743605, 1.6804970644523678, 3.591770105207127, 0.8561985728484334, 0.884852325133488, 0.0, 3.0410346942172697, 0.0, 0.25271302472919566, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5292051830240878, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14920072231784745, 0.07053450689168789, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.5095332842678908], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6881640013330474, 1.0714601159274395, 0.3837435482682072, 0.4708928552986611, 0.03526725344584393, 0.37408022142233566, 0.0, 0.32611005994980435, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901785], [0.035267253445844256, 0.7227249954660371, 0.6545556900545693, 0.764009708905338, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.03526725344584384, 0.03526725344584419, 0.0, 0.06100846183768801], [0.5375182489648086, 1.087621640976931, 1.03777766707837, 1.4641903739531126, 0.3501968966266702, 0.46255922152984974, 0.0, 0.8074791247495402, 0.0, 0.17591360903495365, 0.17950904055170688, 0.27002706350574374, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.035267253445844166, 0.03526725344584394, 0.16522108242054565, 0.0, 0.07882063461243619, 0.0, 0.06100846183768793, 0.0, 0.0, 0.0, 0.07053450689168847, 0.0, 0.035267253445843846, 0.0, 0.09931458050997255], [0.03526725344584419, 0.9967806879392012, 0.526228191986982, 0.7060505009675876, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.03526725344584419], [0.2565440277854765, 0.907373119036394, 0.6509205481874648, 0.713049039743696, 0.2738537045298144, 0.31206886765491826, 0.0, 0.37610615783645407, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378375], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0877228756317716, 0.8717968308186508, 1.8174447063466455, 0.4068018738819371, 0.5464005171597189, 0.0, 1.1679907631196826, 0.0, 0.21305700411948192, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.304879576549922, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.09295869293410507], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.6084402579242185, 0.21936197425475323, 0.396871650229194, 0.0, 0.27355906750344045, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.049844324025378264, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.06100846183768806], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4908907044138981, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0352672534458439, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4001251337669047, 0.6268650378554449, 0.41886800390275897, 1.0826137350261194, 0.2848568208032502, 0.36113282065740643, 0.0, 0.24265727439737708, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.061008461837688405], [0.0, 0.4156007891581909, 0.12649757979606965, 0.5688146222788149, 0.1891180314569826, 0.16505203903612162, 0.0, 0.3465733511849521, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.061008461837688065], [0.07882063461243573, 0.3579841864799267, 0.3084247776473652, 0.30724590663789775, 0.11134392501747144, 0.226738996961806, 0.0, 0.3779817644814471, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.06100846183768818], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3072459066378995, 1.1161589380431813, 0.7966530951379518, 1.7878611020040296, 0.5500525535738129, 0.7102203423466364, 0.0, 1.3603633021177368, 0.0, 0.31061436477554316, 0.3317676952571892, 0.5727949508848241, 0.2480239721320222, 0.2527130247291949, 0.0, 0.6907126114890166, 0.03526725344584406, 0.20133562700562752, 0.18885543578200434, 0.29376065352653785, 0.11650326837884503, 0.15685226892985182, 0.0, 0.3497892373821809, 0.0, 0.11114875584898999, 0.11671605991392227, 0.19806620525101934, 0.06100846183768915, 0.1450689202333601, 0.0, 0.9435937081389504]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.58499999999999</v>
+        <v>71.491</v>
       </c>
       <c r="C4" t="n">
-        <v>13.08</v>
+        <v>15.41</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4085</v>
+        <v>3.3758</v>
       </c>
       <c r="E4" t="n">
-        <v>21.71</v>
+        <v>23.64</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0314</v>
+        <v>5.992700000000002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0153</v>
+        <v>0.0184</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5436</v>
+        <v>2.5633</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>127.87</v>
       </c>
       <c r="J4" t="n">
-        <v>322.26</v>
+        <v>321.83</v>
       </c>
       <c r="K4" t="n">
-        <v>6.036999999999999</v>
+        <v>5.826799999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8144</v>
+        <v>2.884999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>4.6052</v>
+        <v>4.558000000000001</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[78.54, 20.19, 102.14, 46.63, 15.25, 28.99, 0.51, 16.13, 2.52, 3.98, 2.94, 0.39, 2.12, 0.04, 0.4, 0.21, 0.08, 0.1, 0.0, 0.07, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[82.86, 16.34, 91.55, 45.7, 21.34, 35.95, 1.18, 15.66, 2.08, 3.78, 1.88, 0.22, 1.33, 0.05, 0.44, 0.1, 0.04, 0.13, 0.04, 0.03, 0.01, 0.01, 0.01, 0.01, 0.02, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[59.36, 0.22, 55.35, 0.18, 63.48, 12.4, 1.03, 52.45, 0.38, 56.31, 0.34, 20.76]</t>
+          <t>[29.22, 24.09, 30.15, 27.41, 26.68, 24.34, 26.93, 29.39, 21.82, 27.33, 27.62, 26.85]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[14.59, 66.02, 146.81, 17.52, 36.6, 4.36, 10.14, 2.57, 7.17, 1.19, 3.57, 0.86, 3.49, 0.5, 1.99, 0.56, 1.72, 0.3, 0.51, 0.1, 0.43, 0.07, 0.15, 0.02, 0.15, 0.04, 0.06, 0.02, 0.02, 0.0, 0.0, 0.0]</t>
+          <t>[9.06, 77.56, 131.73, 24.43, 35.82, 4.67, 10.63, 3.15, 8.01, 1.3, 3.45, 1.21, 3.3, 0.67, 1.78, 0.65, 2.02, 0.23, 0.38, 0.17, 0.33, 0.06, 0.14, 0.05, 0.08, 0.01, 0.04, 0.01, 0.06, 0.03, 0.01, 0.01]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[4.11, 110.39, 58.42, 74.49, 13.01, 16.22, 0.0, 17.56, 0.0, 4.37, 2.09, 4.38, 1.57, 1.46, 0.0, 3.47, 0.0, 1.07, 0.65, 1.51, 0.53, 0.63, 0.01, 1.4, 0.0, 0.54, 0.24, 0.68, 0.2, 0.26, 0.0, 2.6, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[4.78, 120.2, 46.73, 72.32, 13.59, 16.51, 0.01, 19.54, 0.0, 4.46, 2.51, 4.77, 1.57, 1.57, 0.01, 3.66, 0.02, 0.97, 0.4, 1.31, 0.53, 0.55, 0.0, 1.53, 0.0, 0.47, 0.23, 0.55, 0.21, 0.22, 0.0, 2.23, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[15.6, 0.01, 14.03, 0.01, 6.11, 1.14, 0.05, 5.38, 0.06, 10.41, 0.03, 6.44], [0.02, 0.03, 0.02, 0.04, 0.0, 0.01, 0.02, 0.01, 0.01, 0.02, 0.03, 0.01], [15.56, 0.01, 13.05, 0.02, 15.64, 0.98, 0.07, 3.83, 0.03, 4.19, 0.01, 1.77], [0.02, 0.02, 0.03, 0.0, 0.03, 0.03, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0], [6.12, 0.01, 17.47, 0.01, 16.03, 3.65, 0.24, 11.64, 0.05, 6.33, 0.01, 1.68], [0.75, 0.02, 0.91, 0.03, 4.27, 2.99, 0.02, 2.42, 0.05, 0.73, 0.03, 0.13], [0.03, 0.04, 0.12, 0.01, 0.21, 0.02, 0.17, 0.15, 0.0, 0.19, 0.02, 0.06], [4.82, 0.01, 4.24, 0.02, 12.33, 2.49, 0.25, 13.52, 0.06, 13.12, 0.01, 1.4], [0.03, 0.02, 0.02, 0.0, 0.03, 0.05, 0.01, 0.06, 0.02, 0.08, 0.03, 0.03], [10.83, 0.03, 4.01, 0.02, 7.23, 0.81, 0.13, 12.99, 0.05, 15.01, 0.01, 5.07], [0.03, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.03, 0.05, 0.03, 0.12, 0.03], [5.33, 0.01, 1.36, 0.0, 1.43, 0.2, 0.04, 2.17, 0.0, 5.95, 0.02, 4.14]]</t>
+          <t>[[7.83, 0.4, 3.92, 2.56, 1.37, 2.01, 0.15, 2.31, 0.96, 2.76, 3.7, 1.13], [0.46, 5.9, 0.7, 3.77, 1.77, 0.8, 2.13, 0.06, 1.94, 0.56, 2.32, 3.56], [4.48, 0.73, 8.53, 0.49, 4.18, 1.83, 1.46, 2.55, 0.05, 2.86, 0.58, 2.37], [2.54, 3.95, 0.61, 7.64, 0.69, 3.65, 2.25, 0.87, 1.67, 0.06, 2.3, 1.09], [1.38, 1.96, 5.24, 0.78, 6.04, 0.69, 3.12, 2.34, 0.66, 2.16, 0.14, 2.1], [2.11, 0.79, 1.64, 3.74, 0.74, 6.32, 0.73, 3.65, 1.54, 0.78, 2.11, 0.15], [0.13, 2.25, 1.4, 2.33, 3.74, 0.85, 7.02, 0.81, 3.42, 1.35, 1.49, 2.07], [2.16, 0.09, 2.12, 0.9, 2.98, 3.72, 0.95, 7.93, 0.58, 4.79, 1.82, 1.23], [0.79, 1.83, 0.08, 1.73, 0.75, 1.6, 3.89, 0.63, 5.1, 0.29, 3.61, 1.49], [2.72, 0.62, 2.76, 0.06, 2.25, 0.71, 1.49, 5.25, 0.4, 6.81, 0.63, 3.56], [3.7, 2.19, 0.55, 2.37, 0.12, 1.96, 1.63, 1.75, 3.85, 0.7, 7.88, 0.82], [0.86, 3.31, 2.44, 0.96, 2.0, 0.13, 2.03, 1.15, 1.57, 4.09, 0.95, 7.23]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.17, 0.96, 0.92, 1.3, 0.12, 0.12, 0.0, 0.25, 0.0, 0.08, 0.01, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.76, 59.9, 16.01, 16.14, 3.11, 4.82, 0.0, 3.07, 0.0, 1.52, 0.48, 0.92, 0.35, 0.36, 0.0, 0.68, 0.0, 0.3, 0.15, 0.29, 0.16, 0.2, 0.0, 0.19, 0.0, 0.11, 0.04, 0.07, 0.06, 0.05, 0.0, 0.35], [0.57, 16.28, 23.52, 8.26, 2.41, 2.23, 0.0, 2.05, 0.0, 0.48, 0.39, 0.3, 0.23, 0.17, 0.0, 0.36, 0.0, 0.17, 0.11, 0.18, 0.02, 0.05, 0.0, 0.2, 0.0, 0.06, 0.07, 0.04, 0.0, 0.04, 0.0, 0.06], [1.79, 14.87, 7.96, 30.0, 2.79, 3.28, 0.0, 5.07, 0.0, 1.03, 0.54, 1.62, 0.41, 0.37, 0.0, 1.27, 0.0, 0.35, 0.15, 0.54, 0.07, 0.15, 0.0, 0.44, 0.0, 0.16, 0.05, 0.3, 0.05, 0.04, 0.0, 1.0], [0.08, 3.01, 2.58, 2.95, 1.63, 0.87, 0.0, 0.69, 0.0, 0.18, 0.1, 0.15, 0.16, 0.09, 0.0, 0.15, 0.0, 0.02, 0.06, 0.05, 0.09, 0.02, 0.01, 0.05, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.03], [0.16, 4.36, 2.02, 3.28, 1.0, 1.86, 0.0, 1.48, 0.0, 0.36, 0.15, 0.24, 0.15, 0.12, 0.0, 0.17, 0.0, 0.02, 0.04, 0.05, 0.05, 0.06, 0.0, 0.09, 0.0, 0.07, 0.04, 0.06, 0.01, 0.06, 0.0, 0.24], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.25, 3.25, 1.92, 4.66, 0.84, 1.41, 0.0, 2.6, 0.0, 0.27, 0.12, 0.51, 0.14, 0.14, 0.0, 0.4, 0.0, 0.07, 0.05, 0.2, 0.05, 0.02, 0.0, 0.15, 0.0, 0.04, 0.0, 0.04, 0.03, 0.02, 0.0, 0.34], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.62, 0.52, 0.92, 0.18, 0.21, 0.0, 0.29, 0.0, 0.08, 0.07, 0.11, 0.01, 0.03, 0.0, 0.04, 0.0, 0.02, 0.01, 0.01, 0.02, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.06], [0.04, 0.49, 0.48, 0.5, 0.1, 0.15, 0.0, 0.16, 0.0, 0.01, 0.02, 0.02, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.06, 1.11, 0.39, 1.33, 0.14, 0.28, 0.0, 0.41, 0.0, 0.06, 0.05, 0.12, 0.04, 0.05, 0.0, 0.08, 0.0, 0.02, 0.01, 0.06, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.05], [0.04, 0.41, 0.28, 0.4, 0.07, 0.08, 0.0, 0.13, 0.0, 0.03, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.02, 0.44, 0.2, 0.32, 0.04, 0.06, 0.0, 0.13, 0.0, 0.01, 0.01, 0.05, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.89, 0.48, 1.12, 0.13, 0.15, 0.0, 0.31, 0.0, 0.03, 0.03, 0.07, 0.02, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.42, 0.13, 0.28, 0.04, 0.06, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.2, 0.08, 0.15, 0.04, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.34, 0.16, 0.42, 0.08, 0.1, 0.0, 0.11, 0.0, 0.02, 0.03, 0.01, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.05, 0.0, 0.0, 0.0, 0.04], [0.01, 0.16, 0.08, 0.11, 0.01, 0.05, 0.0, 0.07, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21, 0.1, 0.11, 0.01, 0.05, 0.0, 0.08, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.16, 0.11, 0.54, 0.05, 0.12, 0.0, 0.09, 0.0, 0.03, 0.03, 0.05, 0.01, 0.01, 0.0, 0.02, 0.0, 0.03, 0.01, 0.01, 0.01, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.08, 0.17, 0.02, 0.02, 0.0, 0.07, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.06, 0.02, 0.02, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.1, 0.05, 0.33, 0.02, 0.03, 0.0, 0.06, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.02, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.09, 0.01, 0.09, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.48, 0.12, 0.82, 0.06, 0.15, 0.0, 0.26, 0.0, 0.07, 0.01, 0.08, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.01, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.22]]</t>
+          <t>[[0.07, 1.82, 0.54, 1.53, 0.11, 0.09, 0.0, 0.32, 0.0, 0.03, 0.0, 0.07, 0.01, 0.01, 0.0, 0.06, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02], [2.01, 68.31, 15.23, 16.81, 3.64, 4.7, 0.0, 3.07, 0.0, 1.32, 0.46, 1.05, 0.39, 0.45, 0.0, 0.64, 0.0, 0.35, 0.07, 0.16, 0.09, 0.15, 0.0, 0.32, 0.0, 0.15, 0.04, 0.07, 0.07, 0.02, 0.0, 0.22], [0.3, 14.56, 14.63, 7.32, 2.14, 2.09, 0.01, 1.9, 0.0, 0.65, 0.54, 0.37, 0.27, 0.2, 0.0, 0.49, 0.0, 0.19, 0.11, 0.19, 0.1, 0.08, 0.0, 0.13, 0.0, 0.04, 0.04, 0.01, 0.02, 0.03, 0.0, 0.13], [1.79, 16.15, 7.05, 27.86, 2.88, 2.92, 0.0, 5.98, 0.0, 1.07, 0.7, 1.63, 0.25, 0.34, 0.01, 1.03, 0.02, 0.17, 0.08, 0.37, 0.11, 0.14, 0.0, 0.48, 0.0, 0.12, 0.04, 0.19, 0.05, 0.05, 0.0, 0.66], [0.04, 3.35, 1.99, 2.94, 1.87, 0.91, 0.0, 1.01, 0.0, 0.29, 0.2, 0.24, 0.1, 0.1, 0.0, 0.14, 0.0, 0.06, 0.02, 0.02, 0.01, 0.04, 0.0, 0.03, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.11], [0.11, 4.44, 2.03, 3.07, 0.9, 2.49, 0.0, 1.2, 0.0, 0.35, 0.18, 0.29, 0.15, 0.14, 0.0, 0.24, 0.0, 0.07, 0.02, 0.12, 0.07, 0.05, 0.0, 0.11, 0.0, 0.06, 0.01, 0.03, 0.01, 0.04, 0.0, 0.31], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19, 3.6, 1.64, 5.59, 0.89, 1.31, 0.0, 3.21, 0.0, 0.29, 0.14, 0.54, 0.13, 0.14, 0.0, 0.54, 0.0, 0.05, 0.03, 0.24, 0.06, 0.05, 0.0, 0.25, 0.0, 0.03, 0.04, 0.09, 0.03, 0.02, 0.0, 0.39], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 1.71, 0.49, 0.88, 0.17, 0.41, 0.0, 0.31, 0.0, 0.12, 0.03, 0.1, 0.03, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.02, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02], [0.0, 0.65, 0.66, 0.53, 0.12, 0.1, 0.0, 0.18, 0.0, 0.02, 0.04, 0.05, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.05], [0.07, 1.23, 0.42, 1.54, 0.24, 0.16, 0.0, 0.5, 0.0, 0.03, 0.05, 0.08, 0.05, 0.04, 0.0, 0.1, 0.0, 0.02, 0.02, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.04, 0.01, 0.01, 0.0, 0.0, 0.0, 0.05], [0.04, 0.64, 0.19, 0.2, 0.05, 0.11, 0.0, 0.15, 0.0, 0.04, 0.02, 0.04, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.02, 0.56, 0.18, 0.33, 0.08, 0.07, 0.0, 0.15, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 0.72, 0.31, 1.11, 0.07, 0.27, 0.0, 0.5, 0.0, 0.08, 0.07, 0.08, 0.04, 0.0, 0.0, 0.1, 0.0, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.04, 0.02, 0.01, 0.0, 0.0, 0.08], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.37, 0.12, 0.19, 0.08, 0.07, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.11, 0.07, 0.07, 0.04, 0.0, 0.0, 0.07, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.3, 0.17, 0.37, 0.04, 0.08, 0.0, 0.17, 0.0, 0.0, 0.02, 0.03, 0.0, 0.03, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.0, 0.19, 0.08, 0.08, 0.04, 0.03, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0], [0.0, 0.11, 0.09, 0.07, 0.03, 0.06, 0.0, 0.08, 0.0, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.42, 0.18, 0.35, 0.06, 0.14, 0.0, 0.14, 0.0, 0.03, 0.02, 0.04, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.07, 0.15, 0.0, 0.05, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.12, 0.01, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.0, 0.12, 0.01, 0.16, 0.01, 0.08, 0.0, 0.09, 0.0, 0.0, 0.01, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.03, 0.07, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.05, 0.04, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.25, 0.23, 0.65, 0.09, 0.26, 0.0, 0.37, 0.0, 0.04, 0.02, 0.05, 0.05, 0.0, 0.0, 0.06, 0.0, 0.01, 0.01, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.06]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.66392535404312</v>
+        <v>5.374504721367355</v>
       </c>
       <c r="C5" t="n">
-        <v>2.081730049742281</v>
+        <v>2.245417555823416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.571862527186386</v>
+        <v>0.5327986111093008</v>
       </c>
       <c r="E5" t="n">
-        <v>6.395772040965813</v>
+        <v>4.109793182144328</v>
       </c>
       <c r="F5" t="n">
-        <v>1.15394975627191</v>
+        <v>1.07861749939448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01693841787180845</v>
+        <v>0.01942781511132943</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2210181892967183</v>
+        <v>0.2234280868646554</v>
       </c>
       <c r="I5" t="n">
-        <v>6.644358509291925</v>
+        <v>102.4309186720494</v>
       </c>
       <c r="J5" t="n">
-        <v>5.241412023491379</v>
+        <v>4.726637282466257</v>
       </c>
       <c r="K5" t="n">
-        <v>1.600427755320433</v>
+        <v>1.44709770229933</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8416368813211549</v>
+        <v>0.7707652041964531</v>
       </c>
       <c r="M5" t="n">
-        <v>1.732934205329215</v>
+        <v>1.638837392787948</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[10.768862521176503, 15.410188188338259, 12.49241369792083, 10.514423426893172, 5.776460854190912, 5.903380387540684, 0.8306021911842034, 4.636065141906444, 1.752027397046062, 2.1399999999999992, 2.091984703576965, 0.733416661932356, 1.5638414241859688, 0.19595917942265423, 0.6480740698407855, 0.5530822723609935, 0.27129319932501084, 0.3316624790355398, 0.0, 0.2551470164434616, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[11.414920061042919, 11.379999999999997, 12.109810072829385, 6.64304147209695, 7.747541545548498, 7.47846909467439, 1.6209873534361712, 4.860493802074023, 1.4469277798148745, 2.0667849428520633, 1.4232357499725758, 0.4812483766206392, 1.4700680256369103, 0.25980762113533173, 0.7116178749862885, 0.29999999999999977, 0.19595917942265406, 0.36482872693909374, 0.1959591794226542, 0.17058722109231983, 0.09949874371066196, 0.09949874371066199, 0.09949874371066195, 0.09949874371066199, 0.13999999999999996, 0.0, 0.09949874371066199, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[17.37384240748143, 1.3459569086712984, 12.889821565871268, 0.6225752966509358, 12.719654083346764, 16.870091878825075, 2.934126786626642, 15.649520759435415, 1.1382442620105755, 24.053978880842145, 2.400916491675626, 18.833013566606912]</t>
+          <t>[30.844636486754062, 29.39084721473676, 32.33368986057733, 30.445720553141776, 27.081314591430004, 27.72984673596303, 29.71708431189036, 29.48996269919649, 25.367845789502898, 30.189751572346534, 30.78271592956021, 28.50872673410723]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13.075239959557146, 57.77248133843655, 57.40412790035226, 14.556428133302488, 26.58232495475142, 4.177367592156574, 6.717172023999387, 2.6879546127120526, 5.444364058363474, 1.3615799645999498, 3.2225921243620017, 1.058489489791939, 3.6592212286222865, 0.806225774829855, 2.160995141132899, 0.9520504188329515, 2.149790687485643, 0.6244997998398402, 1.2041179344233672, 0.29999999999999977, 0.9721625378505382, 0.2551470164434616, 0.45552167895721574, 0.13999999999999987, 0.409267638593623, 0.19595917942265398, 0.23748684174075801, 0.13999999999999987, 0.13999999999999996, 0.0, 0.0, 0.0]</t>
+          <t>[15.89139389732694, 62.895996692953354, 65.10281944739414, 21.478945504842642, 27.33839058905992, 4.207267521800819, 7.317998360207523, 3.3477604454321397, 7.144921273184191, 1.5588457268119893, 2.6884010117540136, 1.698793689651571, 2.696293752542553, 0.9597395480024776, 1.814276715388257, 1.0136567466356647, 2.4289092202056457, 0.5264028875300745, 0.6749814812274476, 0.4910193478876368, 0.6489221833163041, 0.2374868417407581, 0.374699879903904, 0.259807621135332, 0.2712931993250109, 0.09949874371066196, 0.19595917942265412, 0.09949874371066197, 0.27640549922170476, 0.17058722109231989, 0.09949874371066199, 0.09949874371066196]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[9.091639016151047, 79.03099328744388, 64.7305461123263, 58.95956156553405, 13.536982677096102, 14.386507567856766, 0.0, 18.94746421028418, 0.0, 3.260843449170781, 2.2320170250246765, 4.413116812412741, 1.7790727922150913, 1.6150541786577934, 0.0, 3.439345868039444, 0.0, 1.313430622454038, 0.8760707733967615, 1.7634908562280673, 1.0144456614328838, 1.0830974102083342, 0.09949874371066197, 2.2627416997969525, 0.0, 0.984073168011404, 0.567802782663136, 1.2639620247459973, 0.44721359549995754, 0.5219195340279948, 0.0, 6.023288138550245, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[7.5240680486024285, 82.66438168885072, 55.40069584400543, 58.10195865889549, 17.325758280664076, 19.43218721605986, 0.09949874371066196, 22.57672252564575, 0.0, 3.201312230945304, 2.4677722747449766, 3.9971364750280913, 1.6867424225411547, 1.6808033793397734, 0.09949874371066199, 3.8320229644405828, 0.13999999999999993, 1.472786474679884, 0.7211102550927971, 1.6655029270463626, 1.0242558274181313, 0.8760707733967615, 0.0, 2.0950178996848674, 0.0, 0.7273926037567335, 0.580603134679792, 1.080509139248715, 0.5156549233741495, 0.5015974481593785, 0.0, 4.127602209515834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[8.74299719775776, 0.09949874371066195, 5.263943388753341, 0.09949874371066197, 3.0851093983844398, 2.097713040432365, 0.2598076211353319, 3.825650271522474, 0.23748684174075826, 4.8334149418397745, 0.2215851980616033, 5.136769412772974], [0.13999999999999987, 0.2984962311319859, 0.13999999999999996, 0.31368774282716244, 0.0, 0.09949874371066195, 0.13999999999999987, 0.09949874371066199, 0.09949874371066199, 0.13999999999999999, 0.2984962311319859, 0.09949874371066199], [5.6909050246863195, 0.09949874371066195, 5.5197373125901565, 0.13999999999999993, 5.608065620158166, 1.7203488018422306, 0.35369478367654705, 2.3960592647094523, 0.17058722109232008, 2.536513354981599, 0.09949874371066199, 2.111184501648305], [0.13999999999999987, 0.13999999999999996, 0.17058722109231986, 0.0, 0.17058722109231977, 0.17058722109231986, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.19899748742132398, 0.0], [3.1089548082916876, 0.09949874371066199, 5.611514946963966, 0.09949874371066199, 6.408517769344173, 4.7966133886316085, 0.8014985963805554, 4.78856972383195, 0.2598076211353315, 3.739130915065692, 0.09949874371066199, 2.1488601629701267], [1.243985530462473, 0.13999999999999999, 1.6976159754196483, 0.17058722109232008, 5.306326412877369, 5.7140091004477735, 0.13999999999999987, 3.47902285131903, 0.32787192621509975, 1.1819898476721362, 0.17058722109231975, 0.3912799509302768], [0.22158519806160307, 0.31368774282716244, 0.3544009029333872, 0.09949874371066195, 0.7251896303726358, 0.13999999999999987, 0.7355949972641196, 0.5361902647381808, 0.0, 0.7706490770772383, 0.19899748742132398, 0.27640549922170504], [3.2722469344473386, 0.09949874371066199, 2.088635918488428, 0.13999999999999987, 4.722404048787017, 3.263418453094853, 0.7123903424387503, 7.87588725160537, 0.2764054992217045, 5.828001372683435, 0.09949874371066195, 1.6552945357246853], [0.17058722109231994, 0.13999999999999999, 0.13999999999999999, 0.0, 0.1705872210923197, 0.2598076211353322, 0.09949874371066195, 0.23748684174075824, 0.13999999999999993, 0.30594117081556693, 0.2984962311319859, 0.2215851980616033], [4.8125980509491955, 0.22158519806160334, 2.551450567814318, 0.13999999999999987, 3.8179968569918965, 1.1721348045340176, 0.4394314508543964, 5.678899541284386, 0.21794494717703364, 13.200374994673444, 0.09949874371066199, 5.242623389105878], [0.17058722109231975, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.0, 0.19899748742132398, 0.17058722109231972, 0.4974937185533102, 0.17058722109231977, 1.1939849245279437, 0.17058722109231983], [5.1459790127827, 0.09949874371066195, 1.7917589123540045, 0.0, 1.6926606275328802, 0.4898979485566352, 0.24166091947189128, 2.1309856874226063, 0.0, 6.145526828515194, 0.13999999999999987, 5.4662967354507925]]</t>
+          <t>[[10.622669156101965, 0.8944271909999152, 6.026076667285271, 5.2845434996790415, 2.6819955257233357, 3.151174384257401, 0.4330127018922201, 3.214638393350018, 2.23571017799714, 4.907382194204974, 6.688049042882383, 2.2523543238131976], [0.9531002045955085, 8.897752525216696, 2.02731349327133, 6.347999684940131, 3.8829241558392544, 2.0396078054371136, 3.2974383997278847, 0.23748684174075838, 3.3906341589738043, 1.5512575543732252, 4.498622011238551, 6.62619045907979], [6.856354716611444, 2.14874381907197, 11.523415292351476, 1.3228378585450318, 5.9217902698423925, 4.147420885321381, 3.6039422858863883, 3.424543765233555, 0.2179449471770336, 3.8756160800574655, 1.59486676559517, 4.380993038113617], [5.072317024792514, 6.775507361076364, 1.5485154180698344, 11.32476931332378, 1.7702824633374186, 6.099795078525185, 4.08013480169467, 1.9680193088483648, 2.5141797867296605, 0.2764054992217051, 3.2542280190545956, 2.5301976207403265], [2.8522973197056447, 4.324164659214538, 7.0144422443983405, 2.256457400439905, 8.411801233980748, 1.671496335622664, 5.097607281852929, 3.715427297095179, 2.055334522650754, 3.1071530377501544, 0.4903060268852508, 3.0182776545573122], [3.3253420876655664, 1.966189207578965, 3.874325747791477, 5.949151199961216, 1.69481562419043, 10.066657836640719, 1.8376887658142762, 6.350393688583415, 3.0673115264022317, 1.8087564789103048, 3.0753698964514804, 0.43301270189221996], [0.39127995093027673, 3.601041516006168, 3.2924155266308666, 4.256888535068782, 6.022657220861899, 2.0946360065653433, 10.040896374328335, 1.963135247505886, 5.8123661274905905, 3.073678577860736, 3.287841237042932, 2.9094844904209403], [3.0388155587333703, 0.2861817604250837, 3.2780481997676625, 2.1517434791350016, 4.804123229060637, 6.454579769435034, 2.3339880033967595, 10.300732983627906, 1.6922174801130034, 6.797492184622207, 3.9022557578918393, 2.327466433699957], [2.0654055291879123, 3.1338634303364263, 0.30594117081556693, 2.5014195969489013, 1.9410048943781673, 3.4176014981270115, 6.515972682570113, 1.6950221237494212, 7.537240874484511, 0.816026960338934, 5.556788640932815, 2.954640418054285], [4.6692183500024935, 1.9327700328802704, 3.5696498427716983, 0.23748684174075813, 3.2384409829422554, 1.704670056051903, 3.5170868627317122, 7.675122148865124, 1.0770329614268999, 9.39116073762983, 1.9680193088483684, 5.882720459107337], [6.865129277733958, 4.00673183529919, 1.5451537140362457, 3.116584669153077, 0.4749736834815159, 2.8492806109612987, 3.623961920329734, 3.8193585848935423, 5.879413236029601, 2.142428528562856, 11.158207741389296, 2.0706520712084866], [1.7833676009168717, 6.069093836809579, 4.490701504219583, 2.262388118780685, 2.6532998322843198, 0.3912799509302767, 2.9170361670709544, 2.3468063405402657, 3.09598126609319, 6.625850888753832, 2.3468063405402653, 10.064646044446867]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.9061456836513632, 2.1629609335353246, 2.3224125387191665, 4.279018579066936, 0.47497368348151636, 0.38157568056677843, 0.0, 0.852936105461599, 0.0, 0.2712931993250109, 0.09949874371066197, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231986], [1.9032603605392509, 64.92680494218084, 17.696041930330072, 13.035351932341527, 2.9795805073869035, 4.66343221243753, 0.0, 2.5426560915703873, 0.0, 1.6092234151913145, 0.8059776671843962, 1.3013838787997953, 0.6062177826491071, 0.6711184694225009, 0.0, 0.9474175425861617, 0.0, 0.6244997998398402, 0.43301270189221963, 0.6048966853934643, 0.46303347611160944, 0.44721359549995754, 0.0, 0.44034077712608, 0.0, 0.34336569426778807, 0.19595917942265415, 0.2551470164434616, 0.23748684174075815, 0.2179449471770338, 0.0, 0.7794228634059952], [1.3583445807305314, 17.895295471156658, 38.472452482263215, 9.57665912518557, 3.478778521262886, 3.4752122237354075, 0.0, 2.8613807855648985, 0.0, 0.9217374897442332, 0.7196526940128825, 0.6403124237432855, 0.5450688029964661, 0.4255584566190644, 0.0, 0.6560487786742695, 0.0, 0.4013726448077897, 0.31288975694324056, 0.3841874542459713, 0.13999999999999996, 0.25980762113533173, 0.0, 0.48989794855663504, 0.0, 0.23748684174075815, 0.2917190429162965, 0.19595917942265417, 0.0, 0.1959591794226542, 0.0, 0.2764054992217047], [4.996588836396286, 13.234541926338064, 9.61968814463338, 45.89335463877096, 4.271521977000704, 3.2560098279949976, 0.0, 6.672713091389439, 0.0, 1.3961017154921056, 0.899110671719561, 2.6259474480651748, 0.7758221445666532, 0.7163099887618486, 0.0, 1.9123545696339896, 0.0, 0.7399324293474373, 0.35707142142714304, 0.9941830817309262, 0.29171904291629636, 0.4555216789572156, 0.0, 1.1253443917308166, 0.0, 0.46303347611160955, 0.2179449471770339, 0.6403124237432856, 0.2179449471770336, 0.19595917942265415, 0.0, 2.5573423705088842], [0.27129319932501095, 2.8687802285989084, 3.7872945488831466, 4.459540335056968, 3.103723570165356, 1.4398263784220653, 0.0, 1.346811048365732, 0.0, 0.4093897898091748, 0.2999999999999999, 0.3570714214271429, 0.46303347611160917, 0.28618176042508375, 0.0, 0.45552167895721535, 0.0, 0.13999999999999987, 0.23748684174075826, 0.25980762113533207, 0.31921779399024763, 0.13999999999999985, 0.09949874371066197, 0.25980762113533207, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.22158519806160307], [0.48414873747640835, 4.129213000076408, 2.6869313351851773, 3.367729205265769, 1.9748417658131499, 3.337723775269608, 0.0, 2.9444184485225597, 0.0, 0.9329523031752484, 0.4769696007084736, 0.4923413450036472, 0.4555216789572154, 0.35440090293338716, 0.0, 0.49101934788763685, 0.0, 0.13999999999999987, 0.19595917942265423, 0.21794494717703367, 0.21794494717703367, 0.27640549922170493, 0.0, 0.4023679907746142, 0.0, 0.2917190429162964, 0.19595917942265415, 0.27640549922170493, 0.09949874371066199, 0.23748684174075788, 0.0, 0.7889233169326411], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.061838029079765, 2.750908940695784, 2.5206348406701053, 6.395654774923361, 1.4192955999368142, 3.265256498347413, 0.0, 7.142828571371438, 0.0, 0.719096655533871, 0.5706137047074833, 1.2766753698571922, 0.40049968789001583, 0.44766058571198797, 0.0, 1.191637528781298, 0.0, 0.25514701644346166, 0.21794494717703358, 0.5291502622129178, 0.25980762113533173, 0.13999999999999985, 0.0, 0.536190264738181, 0.0, 0.2416609194718914, 0.0, 0.24166091947189133, 0.17058722109231989, 0.13999999999999985, 0.0, 0.9189124006128115], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 1.6172816699635228, 0.9108238029388558, 1.2464349160706307, 0.6539113089708731, 0.5530822723609935, 0.0, 0.8865100112237883, 0.0, 0.30594117081556654, 0.29171904291629636, 0.3128897569432405, 0.09949874371066199, 0.17058722109231972, 0.0, 0.19595917942265415, 0.0, 0.1399999999999999, 0.09949874371066196, 0.09949874371066195, 0.13999999999999987, 0.13999999999999993, 0.0, 0.19595917942265395, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.13999999999999985, 0.09949874371066195, 0.0, 0.27640549922170476], [0.31368774282716233, 0.7680494775728967, 0.8541662601625054, 0.8185352771872451, 0.3316624790355398, 0.4769696007084736, 0.0, 0.6740919818541067, 0.0, 0.09949874371066195, 0.13999999999999985, 0.13999999999999987, 0.09949874371066197, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.2374868417407581, 1.3703649149040564, 0.6307931515164061, 2.6345967433366333, 0.4004996878900159, 0.6177378084592197, 0.0, 1.1144056711987782, 0.0, 0.2764054992217049, 0.21794494717703358, 0.38157568056677843, 0.24166091947189125, 0.21794494717703403, 0.0, 0.27129319932501095, 0.0, 0.13999999999999987, 0.09949874371066199, 0.2764054992217046, 0.09949874371066195, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.2598076211353321], [0.1959591794226542, 0.7361385739111904, 0.6645299090334456, 0.7999999999999992, 0.35369478367654733, 0.305941170815567, 0.0, 0.4160528812542942, 0.0, 0.17058722109232, 0.1399999999999999, 0.17058722109231975, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.13999999999999987, 0.8284926070883195, 0.4690415759823427, 0.6462197768561414, 0.24166091947189125, 0.27640549922170454, 0.0, 0.4394314508543964, 0.0, 0.09949874371066199, 0.09949874371066199, 0.2179449471770337, 0.09949874371066196, 0.0, 0.0, 0.24166091947189147, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.264080693626796, 0.7807688518377259, 1.8723247581549518, 0.43943145085439655, 0.3840572873934309, 0.0, 0.9454628496138819, 0.0, 0.1705872210923199, 0.17058722109231989, 0.32419130154894665, 0.13999999999999987, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.13999999999999993, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.19595917942265417, 0.0, 0.0, 0.0, 0.2179449471770339], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.8388086790204309, 0.3912799509302768, 0.5306599664568634, 0.19595917942265415, 0.2374868417407582, 0.0, 0.19595917942265412, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999996, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.09949874371066199, 0.44721359549995743, 0.3059411708155668, 0.38405728739343103, 0.19595917942265412, 0.17058722109231972, 0.0, 0.195959179422654, 0.0, 0.13999999999999993, 0.0, 0.09949874371066193, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.6666333324999588, 0.4409081537009724, 0.896437393240599, 0.337045990927054, 0.2999999999999999, 0.0, 0.39736632972611075, 0.0, 0.13999999999999999, 0.17058722109231975, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.2598076211353318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.25980762113533207, 0.0, 0.0, 0.0, 0.19595917942265417], [0.09949874371066196, 0.46303347611160967, 0.3059411708155668, 0.34336569426778807, 0.09949874371066199, 0.21794494717703383, 0.0, 0.3241913015489465, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5346961754117942, 0.29999999999999977, 0.34336569426778807, 0.09949874371066196, 0.2179449471770336, 0.0, 0.3370459909270541, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.39293765408777054, 0.39736632972611075, 1.2281693694275226, 0.21794494717703378, 0.38157568056677843, 0.0, 0.37669616403674794, 0.0, 0.1705872210923198, 0.17058722109231994, 0.21794494717703405, 0.09949874371066196, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.1705872210923196, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.09949874371066193, 0.0, 0.1705872210923198, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.2416609194718911], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5102940328869232, 0.3059411708155671, 0.42555845661906444, 0.13999999999999993, 0.13999999999999999, 0.0, 0.2917190429162962, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1959591794226542, 0.23748684174075815, 0.13999999999999987, 0.13999999999999987, 0.13999999999999987, 0.0, 0.22158519806160323, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.41231056256176624, 0.21794494717703378, 0.8724104538575861, 0.13999999999999987, 0.17058722109232005, 0.0, 0.2374868417407581, 0.0, 0.09949874371066196, 0.0, 0.19595917942265406, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.23748684174075815, 0.13999999999999985, 0.19595917942265398, 0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.28618176042508364, 0.09949874371066196, 0.2861817604250835, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2958039891549805, 0.9217374897442338, 0.43081318457076045, 2.104186303538732, 0.2764054992217047, 0.5545268253204716, 0.0, 0.944669254289563, 0.0, 0.32419130154894626, 0.09949874371066199, 0.30594117081556704, 0.0, 0.17058722109231994, 0.0, 0.24166091947189136, 0.0, 0.09949874371066199, 0.0, 0.22158519806160357, 0.09949874371066195, 0.13999999999999987, 0.0, 0.36932370625238836, 0.0, 0.13999999999999987, 0.0, 0.13999999999999996, 0.09949874371066195, 0.09949874371066196, 0.0, 1.3607350954539197]]</t>
+          <t>[[0.291719042916296, 3.656172862434162, 1.1083320801997938, 4.850680364649894, 0.3433656942677882, 0.44933283877321956, 0.0, 0.926066952223219, 0.0, 0.17058722109231983, 0.0, 0.29171904291629647, 0.09949874371066197, 0.09949874371066195, 0.0, 0.27640549922170476, 0.0, 0.0, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.19595917942265428, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.13999999999999987], [4.112164879962861, 66.08883339869149, 17.50648736897268, 15.523978227245745, 4.832225160316931, 4.765501022977541, 0.0, 2.5700389102112835, 0.0, 1.548418548067673, 0.8175573374387878, 1.314343942809492, 0.7860661549767929, 0.7533259586659687, 0.0, 0.8777243302996677, 0.0, 0.7533259586659683, 0.2551470164434616, 0.3929376540877701, 0.31921779399024763, 0.3570714214271426, 0.0, 0.7054076835419362, 0.0, 0.3570714214271426, 0.2416609194718912, 0.32419130154894654, 0.2917190429162966, 0.13999999999999987, 0.0, 0.558211429478115], [0.8306623862918079, 16.71365908471272, 27.788722532711002, 11.002617870307043, 3.258895518423383, 3.3169112137649996, 0.09949874371066196, 2.984962311319859, 0.0, 1.1434596626029272, 1.1612062693595826, 0.8678133439859052, 0.5264028875300746, 0.6324555320336754, 0.0, 0.9109884741312587, 0.0, 0.44034077712607966, 0.3433656942677881, 0.627614531380527, 0.3605551275463988, 0.3370459909270538, 0.0, 0.4160528812542942, 0.0, 0.19595917942265415, 0.24166091947189117, 0.09949874371066197, 0.1399999999999999, 0.17058722109232, 0.0, 0.4160528812542942], [5.173577099067914, 14.843432891349627, 10.871407452579453, 41.106695318402814, 4.97248428856241, 3.2270110009109048, 0.0, 8.973271421282208, 0.0, 1.2981140165640317, 1.187434208703792, 2.456236959252912, 0.5722761571129799, 0.6200000000000003, 0.09949874371066199, 1.545671375163557, 0.13999999999999993, 0.4255584566190644, 0.30594117081556693, 0.7163099887618483, 0.3128897569432405, 0.40049968789001594, 0.0, 0.888594395660923, 0.0, 0.3815756805667784, 0.19595917942265423, 0.5038849074937652, 0.25980762113533223, 0.21794494717703417, 0.0, 1.4914422550001714], [0.1959591794226542, 4.506384359994165, 3.4131949841753846, 4.953423058855365, 4.679006304761732, 1.6798511838850503, 0.0, 2.076029864910427, 0.0, 0.6970652767137376, 0.4472135954999576, 0.5314132102234573, 0.33166247903553975, 0.3316624790355398, 0.0, 0.400499687890016, 0.0, 0.23748684174075807, 0.13999999999999987, 0.19899748742132392, 0.09949874371066196, 0.2416609194718912, 0.0, 0.2215851980616034, 0.0, 0.09949874371066195, 0.09949874371066199, 0.13999999999999985, 0.09949874371066195, 0.09949874371066193, 0.0, 0.39736632972611075], [0.31288975694324056, 3.9428923393874196, 3.362900533765458, 3.5812148776637236, 2.1563858652847827, 7.125299993684476, 0.0, 2.509980079602227, 0.0, 1.0523782589924597, 0.45563142999578077, 0.667757440991862, 0.4769696007084732, 0.37469987990390385, 0.0, 0.7761443164772903, 0.0, 0.3536947836765479, 0.13999999999999987, 0.5344155686354954, 0.2917190429162964, 0.25980762113533157, 0.0, 0.34336569426778807, 0.0, 0.2764054992217051, 0.09949874371066196, 0.17058722109231972, 0.09949874371066193, 0.24166091947189128, 0.0, 1.0554146104730597], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5038849074937651, 2.75317997958724, 2.823189685444464, 9.055490047479484, 1.7994165721144175, 2.9178588039862374, 0.0, 9.601348863571191, 0.0, 0.5346961754117939, 0.4004996878900157, 1.260317420335051, 0.43943145085439644, 0.4004996878900159, 0.0, 1.4927826365549668, 0.0, 0.25980762113533157, 0.17058722109231983, 0.649923072370877, 0.3411744421846396, 0.2598076211353319, 0.0, 0.8760707733967615, 0.0, 0.1705872210923198, 0.19595917942265412, 0.34914180500192177, 0.17058722109232, 0.1399999999999999, 0.0, 1.182328211623152], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231972, 1.8291801442176223, 0.9746281342132488, 1.251239385569364, 0.5109794516416488, 1.0871522432483873, 0.0, 0.5948949487094337, 0.0, 0.4308131845707599, 0.17058722109232005, 0.2999999999999998, 0.22158519806160357, 0.0, 0.0, 0.21794494717703405, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.19899748742132398, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996], [0.0, 0.8874119674649424, 1.1680753400359059, 0.9742176348229385, 0.3544009029333872, 0.33166247903553986, 0.0, 0.43312815655415426, 0.0, 0.13999999999999999, 0.1959591794226541, 0.21794494717703358, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066193, 0.13999999999999987, 0.13999999999999985, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.25980762113533185], [0.32419130154894615, 1.3700729907563316, 0.8022468448052634, 2.308332731648538, 0.6019966777316968, 0.3666060555964674, 0.0, 1.3228756555322954, 0.0, 0.17058722109231975, 0.21794494717703403, 0.30594117081556693, 0.21794494717703367, 0.19595917942265423, 0.0, 0.3316624790355398, 0.0, 0.13999999999999993, 0.13999999999999999, 0.19595917942265428, 0.0, 0.09949874371066197, 0.0, 0.17058722109231964, 0.0, 0.19595917942265423, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2598076211353322], [0.19595917942265423, 0.9645724441429989, 0.4624932431938876, 0.5099019513592781, 0.32787192621509953, 0.39736632972611063, 0.0, 0.4555216789572153, 0.0, 0.19595917942265417, 0.1399999999999999, 0.19595917942265423, 0.13999999999999993, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.1399999999999999, 0.9308061022576074, 0.43312815655415465, 0.6641535966928129, 0.27129319932501084, 0.32419130154894665, 0.0, 0.40926763859362286, 0.0, 0.17058722109231986, 0.0, 0.17058722109231986, 0.0, 0.17058722109231966, 0.0, 0.19595917942265415, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.30594117081556654, 0.9806120537705013, 0.6587108622149781, 1.8324573664890533, 0.2551470164434616, 0.6301587101675254, 0.0, 1.5066519173319364, 0.0, 0.27129319932501084, 0.29171904291629647, 0.271293199325011, 0.19595917942265423, 0.0, 0.0, 0.36055512754639873, 0.0, 0.0, 0.09949874371066196, 0.13999999999999993, 0.13999999999999987, 0.0, 0.0, 0.1989974874213239, 0.0, 0.0, 0.19595917942265428, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.271293199325011], [0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.770129859179606, 0.3815756805667784, 0.41701318923986064, 0.3655133376499404, 0.2917190429162964, 0.0, 0.17058722109231972, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398], [0.0, 0.31288975694324045, 0.3809199390948179, 0.2551470164434616, 0.24166091947189108, 0.0, 0.0, 0.25514701644346155, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.0, 0.4999999999999997, 0.5109794516416488, 0.7830070242341375, 0.19595917942265398, 0.30594117081556715, 0.0, 0.47021271782035, 0.0, 0.0, 0.13999999999999987, 0.1705872210923199, 0.0, 0.2215851980616033, 0.0, 0.1959591794226541, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231997], [0.0, 0.5421254467371921, 0.30594117081556726, 0.27129319932501084, 0.19595917942265395, 0.17058722109231972, 0.0, 0.19595917942265434, 0.0, 0.0, 0.0, 0.09949874371066196, 0.13999999999999996, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0], [0.0, 0.34336569426778807, 0.319217793990248, 0.3536947836765477, 0.22158519806160318, 0.2374868417407584, 0.0, 0.3059411708155671, 0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.8623224454924043, 0.517300686255102, 0.8411301920630366, 0.27640549922170465, 0.4247352116319062, 0.0, 0.5480875842417892, 0.0, 0.17058722109231994, 0.13999999999999987, 0.19595917942265412, 0.0, 0.09949874371066193, 0.0, 0.3278719262150994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.1959591794226541], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556704, 0.25514701644346155, 0.3570714214271429, 0.0, 0.2179449471770336, 0.0, 0.19595917942265428, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.45343136195018485, 0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.38157568056677843, 0.09949874371066195, 0.48414873747640846, 0.09949874371066196, 0.39191835884530857, 0.0, 0.3766961640367476, 0.0, 0.0, 0.09949874371066199, 0.13999999999999993, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32419130154894643, 0.17058722109231983, 0.2551470164434615, 0.09949874371066193, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.2179449471770338, 0.19595917942265403, 0.19595917942265415, 0.0, 0.13999999999999999, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.6062177826491071, 0.5975784467331466, 1.6085707942145426, 0.31921779399024736, 1.0451794104363135, 0.0, 1.2700787377166813, 0.0, 0.19595917942265423, 0.13999999999999993, 0.25980762113533157, 0.25980762113533185, 0.0, 0.0, 0.3104834939252, 0.0, 0.09949874371066196, 0.09949874371066193, 0.1705872210923196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.3104834939252005]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005490907985882563</v>
+        <v>0.01555288398674022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1449447430167147</v>
+        <v>0.8322474339651714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001069004751418363</v>
+        <v>0.0004771102352830346</v>
       </c>
       <c r="E6" t="n">
-        <v>31.83746114373204</v>
+        <v>0.4447410656911494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007832906021194921</v>
+        <v>0.02023625152720911</v>
       </c>
       <c r="G6" t="n">
-        <v>1.103230123446526</v>
+        <v>1.102356733307019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01270641306977132</v>
+        <v>0.008578734133154998</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05468971746706509</v>
+        <v>0.007743740904012315</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09686295012650331</v>
+        <v>0.1036619856097104</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01131361346798788</v>
+        <v>0.01846986158590299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001559522995987026</v>
+        <v>0.001622282582139819</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005622641552414112</v>
+        <v>0.00496681753996381</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09802308321180589</v>
+        <v>0.06380445420179917</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08352887226016047</v>
+        <v>0.02650637590351506</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02624032192667242</v>
+        <v>0.03436475705528742</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0175243845620692</v>
+        <v>0.01167437602324677</v>
       </c>
       <c r="R6" t="n">
-        <v>1.052535728397714</v>
+        <v>0.298831970682134</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07564693119366218</v>
+        <v>0.06501032030643214</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9652241292744942</v>
+        <v>0.9391671659225582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7509665820478594</v>
+        <v>0.5647045308093537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9654006065113842</v>
+        <v>0.9593957864237131</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5649451837914919</v>
+        <v>0.4974057749077135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9448808307910355</v>
+        <v>0.9359442726777355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7795718169096016</v>
+        <v>0.7528040474160564</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9045544699998189</v>
+        <v>0.9171973140983382</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6373718093046444</v>
+        <v>0.9392553968909952</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8217372552202308</v>
+        <v>0.8215996548963246</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9543545785030375</v>
+        <v>0.9668701852322023</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9662623101640202</v>
+        <v>0.9641154160645903</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9519784684704189</v>
+        <v>0.9550123770320994</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7437738016275826</v>
+        <v>0.8002072488804833</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8478410897305081</v>
+        <v>0.941620286570074</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8884055100311445</v>
+        <v>0.9116050130455202</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9601436932715667</v>
+        <v>0.9724708013307752</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6901674957732604</v>
+        <v>0.8021518460140488</v>
       </c>
       <c r="S7" t="n">
-        <v>0.943530533483506</v>
+        <v>0.9621012958940002</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009925612118048602</v>
+        <v>0.01611008906708011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1793944857832376</v>
+        <v>0.1082904486609104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01753058225127886</v>
+        <v>0.05705386959280989</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0242255226774183</v>
+        <v>0.02011735190544611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03760110292828073</v>
+        <v>0.1065911145891414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8014978330203442</v>
+        <v>0.7256476581753429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004808634592198071</v>
+        <v>0.01052739880903994</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851938279973884</v>
+        <v>1.895115871087602</v>
       </c>
       <c r="J8" t="n">
-        <v>2.444064941403759</v>
+        <v>4.093953714022417</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02087374492635234</v>
+        <v>0.04317298848209565</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3335860468939648</v>
+        <v>0.6405377635389048</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1632357108677244</v>
+        <v>0.4194521431206171</v>
       </c>
       <c r="N8" t="n">
-        <v>2.725123533300741</v>
+        <v>1.301048702136747</v>
       </c>
       <c r="O8" t="n">
-        <v>1.673929989101238</v>
+        <v>2.98599789241777</v>
       </c>
       <c r="P8" t="n">
-        <v>1.061926349554907</v>
+        <v>1.168950678612232</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.374304428430286</v>
+        <v>0.485379994211519</v>
       </c>
       <c r="R8" t="n">
-        <v>0.919090473817278</v>
+        <v>5.140416193722279</v>
       </c>
       <c r="S8" t="n">
-        <v>0.357680907085149</v>
+        <v>0.6171258555288004</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9445014435911182</v>
+        <v>0.9373389688861026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7620125063244823</v>
+        <v>0.6356139168966692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9510106057432725</v>
+        <v>0.9443717489446374</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8251437890471328</v>
+        <v>0.808152322206379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9290820895856524</v>
+        <v>0.9205352371566046</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7651689746380483</v>
+        <v>0.7795124207855537</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7591273371332532</v>
+        <v>0.7507701891316332</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6327484685941821</v>
+        <v>0.9281964566207578</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1783049859972357</v>
+        <v>0.1520900721682998</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9559215437018612</v>
+        <v>0.9534719283568579</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9388590681220473</v>
+        <v>0.949347196312782</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9291548865939044</v>
+        <v>0.9343377844832782</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3789161237453736</v>
+        <v>0.2351977163921943</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8127383557633147</v>
+        <v>0.8810116980542608</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8639230078106231</v>
+        <v>0.8962546644485128</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9517156971075114</v>
+        <v>0.951796085561593</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5678842045156426</v>
+        <v>0.7306315114718868</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9389485396947229</v>
+        <v>0.9508477793076502</v>
       </c>
     </row>
   </sheetData>
